--- a/arxiv_report_0708_0715.xlsx
+++ b/arxiv_report_0708_0715.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Architecture" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Embodied AI" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LLM Pruning" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LLM Quantization" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LLM Other Compression" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LLM Pruning" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LLM Quantization" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,15 +455,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>匹配关键词</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>作者</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
@@ -486,15 +492,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Accelerate, Efficiency, Throughput</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Maxwell Aifer, Zach Belateche, Suraj Bramhavar, Kerem Y. Camsari, Patrick J. Coles, Gavin Crooks, Douglas J. Durian, Andrea J. Liu, Anastasia Marchenkova, Antonio J. Martinez, Peter L. McMahon, Faris Sbahi, Benjamin Weiner, Logan G. Wright</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2507.10463v1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Escalating artificial intelligence (AI) demands expose a critical "compute
 crisis" characterized by unsustainable energy consumption, prohibitive training
@@ -530,67 +541,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AssertCoder: LLM-Based Assertion Generation via Multimodal Specification Extraction</t>
+          <t>Pimba: A Processing-in-Memory Acceleration for Post-Transformer Large Language Model Serving</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Enyuan Tian, Yiwei Ci, Qiusong Yang, Yufeng Li, Zhichao Lyu</t>
+          <t>Acceleration, Architecture, Hardware, Throughput</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2507.10338v1</t>
+          <t>Wonung Kim, Yubin Lee, Yoonsung Kim, Jinwoo Hwang, Seongryong Oh, Jiyong Jung, Aziz Huseynov, Woong Gyu Park, Chang Hyun Park, Divya Mahajan, Jongse Park</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Assertion-Based Verification (ABV) is critical for ensuring functional
-correctness in modern hardware systems. However, manually writing high-quality
-SVAs remains labor-intensive and error-prone. To bridge this gap, we propose
-AssertCoder, a novel unified framework that automatically generates
-high-quality SVAs directly from multimodal hardware design specifications.
-AssertCoder employs a modality-sensitive preprocessing to parse heterogeneous
-specification formats (text, tables, diagrams, and formulas), followed by a set
-of dedicated semantic analyzers that extract structured representations aligned
-with signal-level semantics. These representations are utilized to drive
-assertion synthesis via multi-step chain-of-thought (CoT) prompting. The
-framework incorporates a mutation-based evaluation approach to assess assertion
-quality via model checking and further refine the generated assertions.
-Experimental evaluation across three real-world Register-Transfer Level (RTL)
-designs demonstrates AssertCoder's superior performance, achieving an average
-increase of 8.4% in functional correctness and 5.8% in mutation detection
-compared to existing state-of-the-art approaches.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-07-14</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-07-14</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Pimba: A Processing-in-Memory Acceleration for Post-Transformer Large Language Model Serving</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Wonung Kim, Yubin Lee, Yoonsung Kim, Jinwoo Hwang, Seongryong Oh, Jiyong Jung, Aziz Huseynov, Woong Gyu Park, Chang Hyun Park, Divya Mahajan, Jongse Park</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>http://arxiv.org/abs/2507.10178v1</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Transformers are the driving force behind today's Large Language Models
 (LLMs), serving as the foundation for their performance and versatility. Yet,
@@ -619,6 +588,60 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ECORE: Energy-Conscious Optimized Routing for Deep Learning Models at the Edge</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Accelerator, Efficiency</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Daghash K. Alqahtani, Maria A. Rodriguez, Muhammad Aamir Cheema, Hamid Rezatofighi, Adel N. Toosi</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.06011v2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Edge computing enables data processing closer to the source, significantly
+reducing latency an essential requirement for real-time vision-based analytics
+such as object detection in surveillance and smart city environments. However,
+these tasks place substantial demands on resource constrained edge devices,
+making the joint optimization of energy consumption and detection accuracy
+critical. To address this challenge, we propose ECORE, a framework that
+integrates multiple dynamic routing strategies including estimation based
+techniques and a greedy selection algorithm to direct image processing requests
+to the most suitable edge device-model pair. ECORE dynamically balances energy
+efficiency and detection performance based on object characteristics. We
+evaluate our approach through extensive experiments on real-world datasets,
+comparing the proposed routers against widely used baseline techniques. The
+evaluation leverages established object detection models (YOLO, SSD,
+EfficientDet) and diverse edge platforms, including Jetson Orin Nano, Raspberry
+Pi 4 and 5, and TPU accelerators. Results demonstrate that our proposed
+context-aware routing strategies can reduce energy consumption and latency by
+45% and 49%, respectively, while incurring only a 2% loss in detection accuracy
+compared to accuracy-centric methods.</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
@@ -627,37 +650,48 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The Hitchhiker's Guide to Programming and Optimizing Cache Coherent Heterogeneous Systems: CXL, NVLink-C2C, and AMD Infinity Fabric</t>
+          <t>Efficient Deployment of Vision-Language Models on Mobile Devices: A Case Study on OnePlus 13R</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zixuan Wang, Suyash Mahar, Luyi Li, Jangseon Park, Jinpyo Kim, Theodore Michailidis, Yue Pan, Mingyao Shen, Tajana Rosing, Dean Tullsen, Steven Swanson, Jishen Zhao</t>
+          <t>Accelerator, Efficiency, Hardware</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2411.02814v2</t>
+          <t>Pablo Robin Guerrero, Yueyang Pan, Sanidhya Kashyap</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>We present a thorough analysis of the use of modern heterogeneous systems
-interconnected by various cachecoherent links, including CXL, NVLink-C2C, and
-Infinity Fabric. We studied a wide range of server systems that combined CPUs
-from different vendors and various types of coherent memory devices, including
-CXL memory expander, CXL pool, CXL shared memory, GH200 GPU, and AMD MI300a
-HBM. For this study, we developed a heterogeneous memory benchmark suite,
-Heimdall, to profile the performance of such heterogeneous systems and present
-a detailed performance comparison across systems. By leveraging H E I M DA L L
-, we unveiled the detailed architecture design in these systems, drew
-observations on optimizing performance for workloads, and pointed out
-directions for future development of cache coherent heterogeneous systems.</t>
+          <t>http://arxiv.org/abs/2507.08505v2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Vision-Language Models (VLMs) offer promising capabilities for mobile
+devices, but their deployment faces significant challenges due to computational
+limitations and energy inefficiency, especially for real-time applications.
+This study provides a comprehensive survey of deployment frameworks for VLMs on
+mobile devices, evaluating llama.cpp, MLC-Imp, and mllm in the context of
+running LLaVA-1.5 7B, MobileVLM-3B, and Imp-v1.5 3B as representative workloads
+on a OnePlus 13R. Each deployment framework was evaluated on the OnePlus 13R
+while running VLMs, with measurements covering CPU, GPU, and NPU utilization,
+temperature, inference time, power consumption, and user experience.
+Benchmarking revealed critical performance bottlenecks across frameworks: CPU
+resources were consistently over-utilized during token generation, while GPU
+and NPU accelerators were largely unused. When the GPU was used, primarily for
+image feature extraction, it was saturated, leading to degraded device
+responsiveness. The study contributes framework-level benchmarks, practical
+profiling tools, and an in-depth analysis of hardware utilization bottlenecks,
+highlighting the consistent overuse of CPUs and the ineffective or unstable use
+of GPUs and NPUs in current deployment frameworks.</t>
         </is>
       </c>
     </row>
@@ -669,84 +703,106 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ForgeHLS: A Large-Scale, Open-Source Dataset for High-Level Synthesis</t>
+          <t>Pathfinder for Low-altitude Aircraft with Binary Neural Network</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Zedong Peng, Zeju Li, Mingzhe Gao, Qiang Xu, Chen Zhang, Jieru Zhao</t>
+          <t>Architecture, Efficiency</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2507.03255v2</t>
+          <t>Kaijie Yin, Tian Gao, Hui Kong</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>High-Level Synthesis (HLS) plays a crucial role in modern hardware design by
-transforming high-level code into optimized hardware implementations. However,
-progress in applying machine learning (ML) to HLS optimization has been
-hindered by a shortage of sufficiently large and diverse datasets. To bridge
-this gap, we introduce ForgeHLS, a large-scale, open-source dataset explicitly
-designed for ML-driven HLS research. ForgeHLS comprises over 400,000 diverse
-designs generated from 536 kernels covering a broad range of application
-domains. Each kernel includes systematically automated pragma insertions (loop
-unrolling, pipelining, array partitioning), combined with extensive design
-space exploration using Bayesian optimization. Compared to existing datasets,
-ForgeHLS significantly enhances scale, diversity, and design coverage. We
-further define and evaluate representative downstream tasks, such as Quality of
-Result (QoR) prediction and automated pragma exploration, clearly demonstrating
-ForgeHLS's utility for developing and improving ML-based HLS optimization
-methodologies.</t>
+          <t>http://arxiv.org/abs/2409.08824v4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>A prior global topological map (e.g., the OpenStreetMap, OSM) can boost the
+performance of autonomous mapping by a ground mobile robot. However, the prior
+map is usually incomplete due to lacking labeling in partial paths. To solve
+this problem, this paper proposes an OSM maker using airborne sensors carried
+by low-altitude aircraft, where the core of the OSM maker is a novel efficient
+pathfinder approach based on LiDAR and camera data, i.e., a binary dual-stream
+road segmentation model. Specifically, a multi-scale feature extraction based
+on the UNet architecture is implemented for images and point clouds. To reduce
+the effect caused by the sparsity of point cloud, an attention-guided gated
+block is designed to integrate image and point-cloud features. To optimize the
+model for edge deployment that significantly reduces storage footprint and
+computational demands, we propose a binarization streamline to each model
+component, including a variant of vision transformer (ViT) architecture as the
+encoder of the image branch, and new focal and perception losses to optimize
+the model training. The experimental results on two datasets demonstrate that
+our pathfinder method achieves SOTA accuracy with high efficiency in finding
+paths from the low-level airborne sensors, and we can create complete OSM prior
+maps based on the segmented road skeletons. Code and data are available at:
+\href{https://github.com/IMRL/Pathfinder}{https://github.com/IMRL/Pathfinder}.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Iceberg: Enhancing HLS Modeling with Synthetic Data</t>
+          <t>SLED: A Speculative LLM Decoding Framework for Efficient Edge Serving</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Zijian Ding, Tung Nguyen, Weikai Li, Aditya Grover, Yizhou Sun, Jason Cong</t>
+          <t>Acceleration, Efficiency, Hardware, Throughput</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2507.09948v1</t>
+          <t>Xiangchen Li, Dimitrios Spatharakis, Saeid Ghafouri, Jiakun Fan, Hans Vandierendonck, Deepu John, Bo Ji, Dimitrios Nikolopoulos</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Deep learning-based prediction models for High-Level Synthesis (HLS) of
-hardware designs often struggle to generalize. In this paper, we study how to
-close the generalizability gap of these models through pretraining on synthetic
-data and introduce Iceberg, a synthetic data augmentation approach that expands
-both large language model (LLM)-generated programs and weak labels of unseen
-design configurations. Our weak label generation method is integrated with an
-in-context model architecture, enabling meta-learning from actual and proximate
-labels. Iceberg improves the geometric mean modeling accuracy by $86.4\%$ when
-adapt to six real-world applications with few-shot examples and achieves a
-$2.47\times$ and a $1.12\times$ better offline DSE performance when adapting to
-two different test datasets. Our open-sourced code is here:
-\href{https://github.com/UCLA-VAST/iceberg}{https://github.com/UCLA-VAST/iceberg}</t>
+          <t>http://arxiv.org/abs/2506.09397v4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>The growing gap between the increasing complexity of large language models
+(LLMs) and the limited computational budgets of edge devices poses a key
+challenge for efficient on-device inference, despite gradual improvements in
+hardware capabilities. Existing strategies, such as aggressive quantization,
+pruning, or remote inference, trade accuracy for efficiency or lead to
+substantial cost burdens. This position paper introduces a new framework that
+leverages speculative decoding, previously viewed primarily as a decoding
+acceleration technique for autoregressive generation of LLMs, as a promising
+approach specifically adapted for edge computing by orchestrating computation
+across heterogeneous devices. We propose \acronym, a framework that allows
+lightweight edge devices to draft multiple candidate tokens locally using
+diverse draft models, while a single, shared edge server verifies the tokens
+utilizing a more precise target model. To further increase the efficiency of
+verification, the edge server batch the diverse verification requests from
+devices. This approach supports device heterogeneity and reduces server-side
+memory footprint by sharing the same upstream target model across multiple
+devices. Our initial experiments with Jetson Orin Nano, Raspberry Pi 4B/5, and
+an edge server equipped with 4 Nvidia A100 GPUs indicate substantial benefits:
+2.2 more system throughput, 2.8 more system capacity, and better cost
+efficiency, all without sacrificing model accuracy.</t>
         </is>
       </c>
     </row>
@@ -763,46 +819,47 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BitParticle: Partializing Sparse Dual-Factors to Build Quasi-Synchronizing MAC Arrays for Energy-efficient DNNs</t>
+          <t>Token Compression Meets Compact Vision Transformers: A Survey and Comparative Evaluation for Edge AI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feilong Qiaoyuan, Jihe Wang, Zhiyu Sun, Linying Wu, Yuanhua Xiao, Danghui Wang</t>
+          <t>Architecture, Efficiency, Throughput</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2507.09780v1</t>
+          <t>Phat Nguyen, Ngai-Man Cheung</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bit-level sparsity in quantized deep neural networks (DNNs) offers
-significant potential for optimizing Multiply-Accumulate (MAC) operations.
-However, two key challenges still limit its practical exploitation. First,
-conventional bit-serial approaches cannot simultaneously leverage the sparsity
-of both factors, leading to a complete waste of one factor' s sparsity. Methods
-designed to exploit dual-factor sparsity are still in the early stages of
-exploration, facing the challenge of partial product explosion. Second, the
-fluctuation of bit-level sparsity leads to variable cycle counts for MAC
-operations. Existing synchronous scheduling schemes that are suitable for
-dual-factor sparsity exhibit poor flexibility and still result in significant
-underutilization of MAC units. To address the first challenge, this study
-proposes a MAC unit that leverages dual-factor sparsity through the emerging
-particlization-based approach. The proposed design addresses the issue of
-partial product explosion through simple control logic, resulting in a more
-area- and energy-efficient MAC unit. In addition, by discarding less
-significant intermediate results, the design allows for further hardware
-simplification at the cost of minor accuracy loss. To address the second
-challenge, a quasi-synchronous scheme is introduced that adds cycle-level
-elasticity to the MAC array, reducing pipeline stalls and thereby improving MAC
-unit utilization. Evaluation results show that the exact version of the
-proposed MAC array architecture achieves a 29.2% improvement in area efficiency
-compared to the state-of-the-art bit-sparsity-driven architecture, while
-maintaining comparable energy efficiency. The approximate variant further
-improves energy efficiency by 7.5%, compared to the exact version. Index-Terms:
-DNN acceleration, Bit-level sparsity, MAC unit</t>
+          <t>http://arxiv.org/abs/2507.09702v1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Token compression techniques have recently emerged as powerful tools for
+accelerating Vision Transformer (ViT) inference in computer vision. Due to the
+quadratic computational complexity with respect to the token sequence length,
+these methods aim to remove less informative tokens before the attention layers
+to improve inference throughput. While numerous studies have explored various
+accuracy-efficiency trade-offs on large-scale ViTs, two critical gaps remain.
+First, there is a lack of unified survey that systematically categorizes and
+compares token compression approaches based on their core strategies (e.g.,
+pruning, merging, or hybrid) and deployment settings (e.g., fine-tuning vs.
+plug-in). Second, most benchmarks are limited to standard ViT models (e.g.,
+ViT-B, ViT-L), leaving open the question of whether such methods remain
+effective when applied to structurally compressed transformers, which are
+increasingly deployed on resource-constrained edge devices. To address these
+gaps, we present the first systematic taxonomy and comparative study of token
+compression methods, and we evaluate representative techniques on both standard
+and compact ViT architectures. Our experiments reveal that while token
+compression methods are effective for general-purpose ViTs, they often
+underperform when directly applied to compact designs. These findings not only
+provide practical insights but also pave the way for future research on
+adapting token optimization techniques to compact transformer-based networks
+for edge AI and AI agent applications.</t>
         </is>
       </c>
     </row>
@@ -819,39 +876,50 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Compute SNR-Optimal Analog-to-Digital Converters for Analog In-Memory Computing</t>
+          <t>Lightweight Deep Learning-Based Channel Estimation for RIS-Aided Extremely Large-Scale MIMO Systems on Resource-Limited Edge Devices</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mihir Kavishwar, Naresh Shanbhag</t>
+          <t>Efficiency, Hardware</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2507.09776v1</t>
+          <t>Muhammad Kamran Saeed, Ashfaq Khokhar, Shakil Ahmed</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Analog in-memory computing (AIMC) is an energy-efficient alternative to
-digital architectures for accelerating machine learning and signal processing
-workloads. However, its energy efficiency is limited by the high energy cost of
-the column analog-to-digital converters (ADCs). Reducing the ADC precision is
-an effective approach to lowering its energy cost. However, doing so also
-reduces the AIMC's computational accuracy thereby making it critical to
-identify the minimum precision required to meet a target accuracy. Prior works
-overestimate the ADC precision requirements by modeling quantization error as
-input-independent noise, maximizing the signal-to-quantization-noise ratio
-(SQNR), and ignoring the discrete nature of ideal pre-ADC signal. We address
-these limitations by developing analytical expressions for estimating the
-compute signal-to-noise ratio (CSNR), a true metric of accuracy for AIMCs, and
-propose CACTUS, an algorithm to obtain CSNR-optimal ADC parameters. Using a
-circuit-aware behavioral model of an SRAM-based AIMC in a 28nm CMOS process, we
-show that for a 256-dimensional binary dot product, CACTUS reduces the ADC
-precision requirements by 3b while achieving 6dB higher CSNR over prior
-methods. We also delineate operating conditions under which our proposed
-CSNR-optimal ADCs outperform conventional SQNR-optimal ADCs.</t>
+          <t>http://arxiv.org/abs/2507.09627v1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Next-generation wireless technologies such as 6G aim to meet demanding
+requirements such as ultra-high data rates, low latency, and enhanced
+connectivity. Extremely Large-Scale MIMO (XL-MIMO) and Reconfigurable
+Intelligent Surface (RIS) are key enablers, with XL-MIMO boosting spectral and
+energy efficiency through numerous antennas, and RIS offering dynamic control
+over the wireless environment via passive reflective elements. However,
+realizing their full potential depends on accurate Channel State Information
+(CSI). Recent advances in deep learning have facilitated efficient cascaded
+channel estimation. However, the scalability and practical deployment of
+existing estimation models in XL-MIMO systems remain limited. The growing
+number of antennas and RIS elements introduces a significant barrier to
+real-time and efficient channel estimation, drastically increasing data volume,
+escalating computational complexity, requiring advanced hardware, and resulting
+in substantial energy consumption. To address these challenges, we propose a
+lightweight deep learning framework for efficient cascaded channel estimation
+in XL-MIMO systems, designed to minimize computational complexity and make it
+suitable for deployment on resource-constrained edge devices. Using spatial
+correlations in the channel, we introduce a patch-based training mechanism that
+reduces the dimensionality of input to patch-level representations while
+preserving essential information, allowing scalable training for large-scale
+systems. Simulation results under diverse conditions demonstrate that our
+framework significantly improves estimation accuracy and reduces computational
+complexity, regardless of the increasing number of antennas and RIS elements in
+XL-MIMO systems.</t>
         </is>
       </c>
     </row>
@@ -863,47 +931,48 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tools and Methodologies for System-Level Design</t>
+          <t>High-Fidelity Differential-information Driven Binary Vision Transformer</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Shuvra S. Bhattacharyya, Marilyn Wolf</t>
+          <t>Architecture, Efficiency</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2507.09660v1</t>
+          <t>Tian Gao, Zhiyuan Zhang, Kaijie Yin, Xu-Cheng Zhong, Hui Kong</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>System-level design, once the province of board designers, has now become a
-central concern for chip designers. Because chip design is a less forgiving
-design medium -- design cycles are longer and mistakes are harder to correct --
-system-on-chip designers need a more extensive tool suite than may be used by
-board designers and a variety of tools and methodologies have been developed
-for system-level design of systems-on-chips (SoCs). System-level design is less
-amenable to synthesis than are logic or physical design. As a result,
-system-level tools concentrate on modeling, simulation, design space
-exploration, and design verification. The goal of modeling is to correctly
-capture the system's operational semantics, which helps with both
-implementation and verification. The study of models of computation provides a
-framework for the description of digital systems. Not only do we need to
-understand a particular style of computation, such as dataflow, but we also
-need to understand how different models of computation can reliably communicate
-with each other. Design space exploration tools, such as hardware/software
-co-design, develop candidate designs to understand trade-offs. Simulation can
-be used not only to verify functional correctness but also to supply
-performance and power/energy information for design analysis. This chapter
-employs two applications -- video and neural networks -- as examples. Both are
-leading-edge applications that illustrate many important aspects of
-system-level design.</t>
+          <t>http://arxiv.org/abs/2507.02222v2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>The binarization of vision transformers (ViTs) offers a promising approach to
+addressing the trade-off between high computational/storage demands and the
+constraints of edge-device deployment. However, existing binary ViT methods
+often suffer from severe performance degradation or rely heavily on
+full-precision modules. To address these issues, we propose DIDB-ViT, a novel
+binary ViT that is highly informative while maintaining the original ViT
+architecture and computational efficiency. Specifically, we design an
+informative attention module incorporating differential information to mitigate
+information loss caused by binarization and enhance high-frequency retention.
+To preserve the fidelity of the similarity calculations between binary Q and K
+tensors, we apply frequency decomposition using the discrete Haar wavelet and
+integrate similarities across different frequencies. Additionally, we introduce
+an improved RPReLU activation function to restructure the activation
+distribution, expanding the model's representational capacity. Experimental
+results demonstrate that our DIDB-ViT significantly outperforms
+state-of-the-art network quantization methods in multiple ViT architectures,
+achieving superior image classification and segmentation performance.</t>
         </is>
       </c>
     </row>
@@ -915,88 +984,111 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>VFlow: Discovering Optimal Agentic Workflows for Verilog Generation</t>
+          <t>Securing Transformer-based AI Execution via Unified TEEs and Crypto-protected Accelerators</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Yangbo Wei, Zhen Huang, Huang Li, Wei W. Xing, Ting-Jung Lin, Lei He</t>
+          <t>Accelerator, Hardware, Speed</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2504.03723v2</t>
+          <t>Jiaqi Xue, Yifei Zhao, Mengxin Zheng, Fan Yao, Yan Solihin, Qian Lou</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hardware design automation faces challenges in generating high-quality
-Verilog code efficiently. This paper introduces VFlow, an automated framework
-that optimizes agentic workflows for Verilog code generation. Unlike
-traditional approaches relying on fixed prompts or manually designed flows,
-VFlow treats workflow discovery as a search over graph-structured LLM
-invocation sequences. It introduces a multi-population cooperative evolution
-(CEPE-MCTS) algorithm that balances multiple hardware objectives -- functional
-correctness, area, power, timing and token cost -- while sharing successful
-patterns and avoiding repeated failures. Integrated multi-level verification
-ensures syntactic correctness, functional behavior, and synthesizability.
-Experiments on VerilogEval and RTLLM2.0 show VFlow improves pass@1 by 20--30\%
-over prompting baselines and closely matches designer-level area/power.
-Remarkably, VFlow enables small LLMs to outperform larger models with up to
-10.9$\times$ ROI, offering a cost-effective solution for RTL design. This work
-paves the way for intelligent, automated hardware development, advancing LLM
-applications in EDA.</t>
+          <t>http://arxiv.org/abs/2507.03278v2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Recent advances in Transformer models, e.g., large language models (LLMs),
+have brought tremendous breakthroughs in various artificial intelligence (AI)
+tasks, leading to their wide applications in many security-critical domains.
+Due to their unprecedented scale and prohibitively high development cost, these
+models have become highly valuable intellectual property for AI stakeholders
+and are increasingly deployed via machine learning as a service (MLaaS).
+However, MLaaS often runs on untrusted cloud infrastructure, exposing data and
+models to potential breaches. Mainstream protection mechanisms leverage trusted
+execution environments (TEEs) where confidentiality and integrity for secretive
+data are shielded using hardware-based encryption and integrity checking.
+Unfortunately, running model inference entirely within TEEs is subject to
+non-trivial slowdown, which is further exacerbated in LLMs due to the
+substantial computation and memory footprint involved. Recent studies reveal
+that the hybrid TEE-based scheme offloading partial model inference operations
+to the untrusted accelerators (e.g., GPU) is a promising solution. However,
+prior offloading schemes fail to ensure dual protection of data and model in
+Transformer inference, as they cannot securely offload critical operations,
+i.e., Attention and SoftMax, forcing these computations to remain confined
+within TEEs. To address these challenges, we propose TwinShield, a framework
+enabling secure Transformer inference in heterogeneous TEE and accelerator
+systems with dual protection for both model and data. TwinShield offloads ~87%
+of computation to GPUs and delivers 4.0x - 6.1x speedups over previous
+approaches across various Transformer models.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PHOENIX: Pauli-Based High-Level Optimization Engine for Instruction Execution on NISQ Devices</t>
+          <t>BEExformer: A Fast Inferencing Binarized Transformer with Early Exits</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Zhaohui Yang, Dawei Ding, Chenghong Zhu, Jianxin Chen, Yuan Xie</t>
+          <t>Accelerate, Efficiency</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2504.03529v5</t>
+          <t>Wazib Ansar, Saptarsi Goswami, Amlan Chakrabarti</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Variational quantum algorithms (VQA) based on Hamiltonian simulation
-represent a specialized class of quantum programs well-suited for near-term
-quantum computing applications due to its modest resource requirements in terms
-of qubits and circuit depth. Unlike the conventional single-qubit (1Q) and
-two-qubit (2Q) gate sequence representation, Hamiltonian simulation programs
-are essentially composed of disciplined subroutines known as Pauli
-exponentiations (Pauli strings with coefficients) that are variably arranged.
-To capitalize on these distinct program features, this study introduces
-PHOENIX, a highly effective compilation framework that primarily operates at
-the high-level Pauli-based intermediate representation (IR) for generic
-Hamiltonian simulation programs. PHOENIX exploits global program optimization
-opportunities to the greatest extent, compared to existing SOTA methods despite
-some of them also utilizing similar IRs. Experimental results demonstrate that
-PHOENIX outperforms SOTA VQA compilers across diverse program categories,
-backend ISAs, and hardware topologies.</t>
+          <t>http://arxiv.org/abs/2412.05225v2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Large Language Models (LLMs) based on transformers achieve cutting-edge
+results on a variety of applications. However, their enormous size and
+processing requirements hinder deployment on constrained resources. To enhance
+efficiency, binarization and Early Exit (EE) have proved to be effective
+solutions. However, binarization may lead to performance loss as reduced
+precision affects gradient estimation and parameter updates. Besides, research
+on EE mechanisms is still in its early stages. To address these challenges, we
+introduce Binarized Early Exit Transformer (BEExformer), the first-ever
+selective learning-based transformer integrating Binarization-Aware Training
+(BAT) with EE for efficient and fast textual inference. Each transformer block
+has an integrated Selective-Learn Forget Network (SLFN) to enhance contextual
+retention while eliminating irrelevant information. The BAT employs a
+differentiable second-order approximation to the sign function, enabling
+gradient computation that captures both the sign and magnitude of the weights.
+This aids in 21.30 times reduction in model size. The EE mechanism hinges on
+fractional reduction in entropy among intermediate transformer blocks with
+soft-routing loss estimation. This accelerates inference by reducing FLOPs by
+52.08% and even improves accuracy by 2.89% by resolving the "overthinking"
+problem inherent in deep networks. Extensive evaluation through comparison with
+the SOTA methods and various ablations across six datasets covering multiple
+NLP tasks demonstrates its Pareto-optimal performance-efficiency trade-off.</t>
         </is>
       </c>
     </row>
@@ -1008,25 +1100,77 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Towards Pareto Optimal Throughput in Small Language Model Serving</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Accelerator, Throughput</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Pol G. Recasens, Yue Zhu, Chen Wang, Eun Kyung Lee, Olivier Tardieu, Alaa Youssef, Jordi Torres, Josep Ll. Berral</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2404.03353v2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Large language models (LLMs) have revolutionized the state-of-the-art of many
+different natural language processing tasks. Although serving LLMs is
+computationally and memory demanding, the rise of Small Language Models (SLMs)
+offers new opportunities for resource-constrained users, who now are able to
+serve small models with cutting-edge performance. In this paper, we present a
+set of experiments designed to benchmark SLM inference at performance and
+energy levels. Our analysis provides a new perspective in serving, highlighting
+that the small memory footprint of SLMs allows for reaching the Pareto-optimal
+throughput within the resource capacity of a single accelerator. In this
+regard, we present an initial set of findings demonstrating how model
+replication can effectively improve resource utilization for serving SLMs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>2025-07-12</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>SLIM: A Heterogeneous Accelerator for Edge Inference of Sparse Large Language Model via Adaptive Thresholding</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Accelerator, Architecture, Efficiency, Hardware, Throughput</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Weihong Xu, Haein Choi, Po-kai Hsu, Shimeng Yu, Tajana Rosing</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2507.09201v1</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Large language models (LLMs) have demonstrated exceptional proficiency in
 understanding and generating human language, but efficient inference on
@@ -1051,33 +1195,38 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>2025-07-12</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>AHCPTQ: Accurate and Hardware-Compatible Post-Training Quantization for Segment Anything Model</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Efficiency, Hardware, Speed</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Wenlun Zhang, Yunshan Zhong, Shimpei Ando, Kentaro Yoshioka</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2503.03088v3</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>The Segment Anything Model (SAM) has demonstrated strong versatility across
 various visual tasks. However, its large storage requirements and high
@@ -1103,33 +1252,206 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>FieldNet: Efficient Real-Time Shadow Removal for Enhanced Vision in Field Robotics</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Hardware, Speed</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Alzayat Saleh, Alex Olsen, Jake Wood, Bronson Philippa, Mostafa Rahimi Azghadi</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2403.08142v3</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Shadows significantly hinder computer vision tasks in outdoor environments,
+particularly in field robotics, where varying lighting conditions complicate
+object detection and localisation. We present FieldNet, a novel deep learning
+framework for real-time shadow removal, optimised for resource-constrained
+hardware. FieldNet introduces a probabilistic enhancement module and a novel
+loss function to address challenges of inconsistent shadow boundary supervision
+and artefact generation, achieving enhanced accuracy and simplicity without
+requiring shadow masks during inference. Trained on a dataset of 10,000 natural
+images augmented with synthetic shadows, FieldNet outperforms state-of-the-art
+methods on benchmark datasets (ISTD, ISTD+, SRD), with up to $9$x speed
+improvements (66 FPS on Nvidia 2080Ti) and superior shadow removal quality
+(PSNR: 38.67, SSIM: 0.991). Real-world case studies in precision agriculture
+robotics demonstrate the practical impact of FieldNet in enhancing weed
+detection accuracy. These advancements establish FieldNet as a robust,
+efficient solution for real-time vision tasks in field robotics and beyond.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>2025-07-11</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Temporal Feature Matters: A Framework for Diffusion Model Quantization</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Acceleration, Efficiency, Hardware</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Yushi Huang, Ruihao Gong, Xianglong Liu, Jing Liu, Yuhang Li, Jiwen Lu, Dacheng Tao</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2407.19547v4</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>The Diffusion models, widely used for image generation, face significant
+challenges related to their broad applicability due to prolonged inference
+times and high memory demands. Efficient Post-Training Quantization (PTQ) is
+crucial to address these issues. However, unlike traditional models, diffusion
+models critically rely on the time-step for the multi-round denoising.
+Typically, each time-step is encoded into a hypersensitive temporal feature by
+several modules. Despite this, existing PTQ methods do not optimize these
+modules individually. Instead, they employ unsuitable reconstruction objectives
+and complex calibration methods, leading to significant disturbances in the
+temporal feature and denoising trajectory, as well as reduced compression
+efficiency. To address these challenges, we introduce a novel quantization
+framework that includes three strategies: 1) TIB-based Maintenance: Based on
+our innovative Temporal Information Block (TIB) definition, Temporal
+Information-aware Reconstruction (TIAR) and Finite Set Calibration (FSC) are
+developed to efficiently align original temporal features. 2) Cache-based
+Maintenance: Instead of indirect and complex optimization for the related
+modules, pre-computing and caching quantized counterparts of temporal features
+are developed to minimize errors. 3) Disturbance-aware Selection: Employ
+temporal feature errors to guide a fine-grained selection between the two
+maintenance strategies for further disturbance reduction. This framework
+preserves most of the temporal information and ensures high-quality end-to-end
+generation. Extensive testing on various datasets, diffusion models and
+hardware confirms our superior performance and acceleration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>2025-07-11</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Lizard: An Efficient Linearization Framework for Large Language Models</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Accelerate, Architecture, Hardware, Speed</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Chien Van Nguyen, Ruiyi Zhang, Hanieh Deilamsalehy, Puneet Mathur, Viet Dac Lai, Haoliang Wang, Jayakumar Subramanian, Ryan A. Rossi, Trung Bui, Nikos Vlassis, Franck Dernoncourt, Thien Huu Nguyen</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.09025v1</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>We propose Lizard, a linearization framework that transforms pretrained
+Transformer-based Large Language Models (LLMs) into flexible, subquadratic
+architectures for infinite-context generation. Transformer-based LLMs face
+significant memory and computational bottlenecks as context lengths increase,
+due to the quadratic complexity of softmax attention and the growing key-value
+(KV) cache. Lizard addresses these limitations by introducing a subquadratic
+attention mechanism that closely approximates softmax attention while
+preserving the output quality. Unlike previous linearization methods, which are
+often limited by fixed model structures and therefore exclude gating
+mechanisms, Lizard incorporates a gating module inspired by recent
+state-of-the-art linear models. This enables adaptive memory control, supports
+constant-memory inference, offers strong length generalization, and allows more
+flexible model design. Lizard combines gated linear attention for global
+context compression with sliding window attention enhanced by meta memory,
+forming a hybrid mechanism that captures both long-range dependencies and
+fine-grained local interactions. Moreover, we introduce a hardware-aware
+algorithm that accelerates the training speed of our models. Extensive
+experiments show that Lizard achieves near-lossless recovery of the teacher
+model's performance across standard language modeling tasks, while
+significantly outperforming previous linearization methods. On the 5-shot MMLU
+benchmark, Lizard improves over prior models by 18 points and shows significant
+improvements on associative recall tasks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Hybrid Systolic Array Accelerator with Optimized Dataflow for Edge Large Language Model Inference</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Accelerator, Architecture, Efficiency, Hardware</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Chun-Ting Chen, HanGyeol Mun, Jian Meng, Mohamed S. Abdelfattah, Jae-sun Seo</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2507.09010v1</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Edge inference for large language models (LLM) offers secure, low-latency,
 and cost-effective inference solutions. We emphasize that an edge accelerator
@@ -1151,219 +1473,6 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-07-11</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-06-23</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>MEDEA: A Design-Time Multi-Objective Manager for Energy-Efficient DNN Inference on Heterogeneous Ultra-Low Power Platforms</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Hossein Taji, José Miranda, Miguel Peón-Quirós, David Atienza</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2506.19067v2</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>The growing demand for on-device AI necessitates energy-efficient execution
-of DNN based applications on resource-constrained ultra-low power (ULP)
-platforms. Heterogeneous architectures, combining specialized processing
-elements (PEs), have emerged as a key solution for achieving the required
-performance and energy efficiency. However, optimizing energy while executing
-applications on these platforms requires efficiently managing platform
-resources like PEs, power features, and memory footprint, all while adhering to
-critical application deadlines. This paper presents MEDEA, a novel design-time
-multi-objective manager for energy-efficient DNN inference on Heterogeneous ULP
-(HULP) platforms. MEDEA uniquely integrates: kernel-level dynamic voltage and
-frequency scaling (DVFS) for dynamic energy adaptation; kernel-level
-granularity scheduling, suitable for specialized accelerators; memory-aware
-adaptive tiling to navigate severe memory constraints; and all within a timing
-constraint-based optimization strategy, which minimizes energy based on
-application deadline. To showcase practical viability, we evaluate MEDEA on
-HEEPtimize, a heterogeneous ULP platform (22 nm, FPGA-prototyped) featuring a
-RISC-V processor besides Near-Memory Computing (NMC) and Coarse-Grained
-Reconfigurable Array (CGRA) accelerators. Experimental results, using a
-biomedical seizure detection case study, demonstrate that MEDEA achieves
-overall energy reductions of up to 38% compared to representative
-state-of-the-art methods, while consistently meeting all timing and memory
-requirements. This effectiveness is attributed to its integrated features, with
-our analysis showing that kernel-level DVFS alone can be responsible for over
-31% of the energy savings in specific scenarios.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-07-11</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-07-11</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>CEO-DC: An Actionable Framework to Close the Carbon Gap in HPC Data Centers</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Rubén Rodríguez Álvarez, Denisa-Andreea Constantinescu, Miguel Peón-Quirós, David Atienza</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2507.08923v1</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>The rapid expansion of data centers (DCs) to support large-scale AI and
-scientific workloads is driving unsustainable growth in energy consumption and
-greenhouse gas emissions. While successive generations of hardware platforms
-have improved performance and energy efficiency, the question remains whether
-new, more efficient platforms can realistically offset the rising emissions
-associated with increasing demand. Prior studies often overlook the complex
-trade-offs in such transitions by failing to account for both the economic
-incentives and the projected compute demand growth over the operational
-lifetime of the devices. In response, we present CEO-DC, an integrated model
-and decision-making methodology for Carbon and Economy Optimization in Data
-Centers. CEO-DC models the competing forces of cost, carbon, and compute demand
-to guide optimal platform procurement and replacement strategies. We propose
-metrics to steer procurement, platform design, and policy decisions toward
-sustainable DC technologies. Given current platform trends, our AI case study
-using CEO-DC shows that upgrading legacy devices on a 4-year cycle reduces
-total emissions. However, these upgrades fail to scale with DC demand growth
-trends without increasing total emissions in over 44% of cases, and require
-economic incentives for adoption in over 72%. Furthermore, current carbon
-prices are insufficient to motivate upgrades in 9 out of the 14 countries with
-the highest number of DCs globally. We also find that optimizing platforms for
-energy efficiency at the expense of latency can increase the carbon price
-required to justify their adoption. In summary, CEO-DC provides actionable
-insights for DC architects, platform designers, and policymakers by timing
-legacy platform upgrades, constraining DC growth to sustainable levels,
-optimizing platform performance-to-cost ratios, and increasing incentives.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-07-11</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2025-07-11</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Fast and Efficient Merge of Sorted Input Lists in Hardware Using List Offset Merge Sorters</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Robert B. Kent, Marios S. Pattichis</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2507.08658v1</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>A new set of hardware merge sort devices are introduced here, which merge
-multiple sorted input lists into a single sorted output list in a fast and
-efficient manner. In each merge sorter, the values from the sorted input lists
-are arranged in an input 2-D setup array, but with the order of each sorted
-input list offset from the order of each of the other sorted input lists. In
-these new devices, called List Offset Merge Sorters (LOMS), a minimal set of
-column sort stages alternating with row sort stages process the input setup
-array into a final output array, now in the defined sorted order. LOMS 2-way
-sorters, which merge 2 sorted input lists, require only 2 merge stages and are
-significantly faster than Kenneth Batcher's previous state-of-the-art 2-way
-merge devices, Bitonic Merge Sorters and Odd-Even Merge Sorters. LOMS 2-way
-sorters utilize the recently-introduced Single-Stage 2-way Merge Sorters (S2MS)
-in their first stage. Both LOMS and S2MS devices can merge any mixture of input
-list sizes, while Batcher's merge sorters are difficult to design unless the 2
-input lists are equal, and a power-of-2. By themselves, S2MS devices are the
-fastest 2-way merge sorters when implemented in this study's target FPGA
-devices, but they tend to use a large number of LUT resources. LOMS 2-way
-devices use fewer resources than comparable S2MS devices, enabling some large
-LOMS devices to be implemented in a given FPGA when comparable S2MS devices
-cannot fit in that FPGA. A List Offset 2-way sorter merges 2 lists, each with
-32 values, into a sorted output list of those 64 values in 2.24 nS, a speedup
-of 2.63 versus a comparable Batcher device. A LOMS 3-way merge sorter, merging
-3 sorted input lists with 7 values, fully merges the 21 values in 3.4 nS, a
-speedup of 1.36 versus the comparable state-of-the-art 3-way merge device.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-07-11</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2025-07-11</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>CCSS: Hardware-Accelerated RTL Simulation with Fast Combinational Logic Computing and Sequential Logic Synchronization</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Weigang Feng, Yijia Zhang, Zekun Wang, Zhengyang Wang, Yi Wang, Peijun Ma, Ningyi Xu</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2507.08406v1</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>As transistor counts in a single chip exceed tens of billions, the complexity
-of RTL-level simulation and verification has grown exponentially, often
-extending simulation campaigns to several months. In industry practice, RTL
-simulation is divided into two phases: functional debug and system validation.
-While system validation demands high simulation speed and is typically
-accelerated using FPGAs, functional debug relies on rapid compilation-rendering
-multi-core CPUs the primary choice. However, the limited simulation speed of
-CPUs has become a major bottleneck. To address this challenge, we propose CCSS,
-a scalable multi-core RTL simulation platform that achieves both fast
-compilation and high simulation throughput. CCSS accelerates combinational
-logic computation and sequential logic synchronization through specialized
-architecture and compilation strategies. It employs a balanced DAG partitioning
-method and efficient boolean computation cores for combinational logic, and
-adopts a low-latency network-on-chip (NoC) design to synchronize sequential
-states across cores efficiently. Experimental results show that CCSS delivers
-up to 12.9x speedup over state-of-the-art multi-core simulators.</t>
-        </is>
-      </c>
-    </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
@@ -1377,36 +1486,42 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PDE-aware Optimizer for Physics-informed Neural Networks</t>
+          <t>TinierHAR: Towards Ultra-Lightweight Deep Learning Models for Efficient Human Activity Recognition on Edge Devices</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hardik Shukla, Manurag Khullar, Vismay Churiwala</t>
+          <t>Architecture, Efficiency</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2507.08118v1</t>
+          <t>Sizhen Bian, Mengxi Liu, Vitor Fortes Rey, Daniel Geissler, Paul Lukowicz</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Physics-Informed Neural Networks (PINNs) have emerged as a powerful framework
-for solving partial differential equations (PDEs) by embedding physical
-constraints into the loss function. However, standard optimizers such as Adam
-often struggle to balance competing loss terms, particularly in stiff or
-ill-conditioned systems. In this work, we propose a PDE-aware optimizer that
-adapts parameter updates based on the variance of per-sample PDE residual
-gradients. This method addresses gradient misalignment without incurring the
-heavy computational costs of second-order optimizers such as SOAP. We benchmark
-the PDE-aware optimizer against Adam and SOAP on 1D Burgers', Allen-Cahn and
-Korteweg-de Vries(KdV) equations. Across both PDEs, the PDE-aware optimizer
-achieves smoother convergence and lower absolute errors, particularly in
-regions with sharp gradients. Our results demonstrate the effectiveness of PDE
-residual-aware adaptivity in enhancing stability in PINNs training. While
-promising, further scaling on larger architectures and hardware accelerators
-remains an important direction for future research.</t>
+          <t>http://arxiv.org/abs/2507.07949v1</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Human Activity Recognition (HAR) on resource-constrained wearable devices
+demands inference models that harmonize accuracy with computational efficiency.
+This paper introduces TinierHAR, an ultra-lightweight deep learning
+architecture that synergizes residual depthwise separable convolutions, gated
+recurrent units (GRUs), and temporal aggregation to achieve SOTA efficiency
+without compromising performance. Evaluated across 14 public HAR datasets,
+TinierHAR reduces Parameters by 2.7x (vs. TinyHAR) and 43.3x (vs.
+DeepConvLSTM), and MACs by 6.4x and 58.6x, respectively, while maintaining the
+averaged F1-scores. Beyond quantitative gains, this work provides the first
+systematic ablation study dissecting the contributions of spatial-temporal
+components across proposed TinierHAR, prior SOTA TinyHAR, and the classical
+DeepConvLSTM, offering actionable insights for designing efficient HAR systems.
+We finally discussed the findings and suggested principled design guidelines
+for future efficient HAR. To catalyze edge-HAR research, we open-source all
+materials in this work for future
+benchmarking\footnote{https://github.com/zhaxidele/TinierHAR}</t>
         </is>
       </c>
     </row>
@@ -1418,98 +1533,104 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DiP: A Scalable, Energy-Efficient Systolic Array for Matrix Multiplication Acceleration</t>
+          <t>Nexus: Taming Throughput-Latency Tradeoff in LLM Serving via Efficient GPU Sharing</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ahmed J. Abdelmaksoud, Shady Agwa, Themis Prodromakis</t>
+          <t>Hardware, Throughput</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2412.09709v2</t>
+          <t>Xiaoxiang Shi, Colin Cai, Junjia Du, Zhanda Zhu, Zhihao Jia</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Transformers are gaining increasing attention across different application
-domains due to their outstanding accuracy. However, these data-intensive models
-add significant performance demands to the existing computing architectures.
-Systolic arrays are spatial architectures that have been adopted by commercial
-AI computing platforms (like Google TPUs), due to their energy-efficient
-approach of data-reusability. However, these spatial architectures face a
-penalty in throughput and energy efficiency due to the need for input and
-output synchronization using First-In-First-Out (FIFO) buffers. This paper
-proposes a novel scalable systolic-array architecture featuring Diagonal-Input
-and Permutated weight-stationary (DiP) dataflow for the acceleration of matrix
-multiplication. The proposed architecture eliminates the synchronization FIFOs
-required by state-of-the-art weight stationary systolic arrays. Aside from the
-area, power, and energy savings achieved by eliminating these FIFOs, DiP
-architecture maximizes the computational resources (PEs) utilization. Thus, it
-outperforms the weight-stationary counterparts in terms of throughput by up to
-50%. A comprehensive hardware design space exploration is demonstrated using
-commercial 22nm technology, highlighting the scalability advantages of DiP over
-the conventional approach across various dimensions where DiP offers
-improvement of energy efficiency per area up to 2.02x. Furthermore, DiP is
-evaluated using various transformer workloads from widely-used models,
-consistently outperforming TPU-like architectures, achieving energy
-improvements of up to 1.81x and latency improvements of up to 1.49x across a
-range of transformer workloads. At a 64x64 size with 4096 PEs, DiP achieves a
-peak performance of 8.2 TOPS with energy efficiency 9.55 TOPS/W.</t>
+          <t>http://arxiv.org/abs/2507.06608v2</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Current prefill-decode (PD) disaggregation is typically deployed at the level
+of entire serving engines, assigning separate GPUs to handle prefill and decode
+phases. While effective at reducing latency, this approach demands more
+hardware. To improve GPU utilization, Chunked Prefill mixes prefill and decode
+requests within the same batch, but introduces phase interference between
+prefill and decode.
+  While existing PD disaggregation solutions separate the phases across GPUs,
+we ask: can the same decoupling be achieved within a single serving engine? The
+key challenge lies in managing the conflicting resource requirements of prefill
+and decode when they share the same hardware. In this paper, we first show that
+chunked prefill requests cause interference with decode requests due to their
+distinct requirements for GPU resources. Second, we find that GPU resources
+exhibit diminishing returns. Beyond a saturation point, increasing GPU
+allocation yields negligible latency improvements. This insight enables us to
+split a single GPU's resources and dynamically allocate them to prefill and
+decode on the fly, effectively disaggregating the two phases within the same
+GPU.
+  Across a range of models and workloads, our system Nexus achieves up to 2.2x
+higher throughput, 20x lower TTFT, and 2.5x lower TBT than vLLM. It also
+outperforms SGLang with up to 2x higher throughput, 2x lower TTFT, and 1.7x
+lower TBT, and achieves 1.4x higher throughput than vLLM-disaggregation using
+only half the number of GPUs.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Accelerating Transposed Convolutions on FPGA-based Edge Devices</t>
+          <t>Attentions Under the Microscope: A Comparative Study of Resource Utilization for Variants of Self-Attention</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jude Haris, José Cano</t>
+          <t>Architecture, Efficiency, Hardware</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2507.07683v1</t>
+          <t>Zhengyu Tian, Anantha Padmanaban Krishna Kumar, Hemant Krishnakumar, Reza Rawassizadeh</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Transposed Convolutions (TCONV) enable the up-scaling mechanism within
-generative Artificial Intelligence (AI) models. However, the predominant
-Input-Oriented Mapping (IOM) method for implementing TCONV has complex output
-mapping, overlapping sums, and ineffectual computations. These inefficiencies
-further exacerbate the performance bottleneck of TCONV and generative models on
-resource-constrained edge devices. To address this problem, in this paper we
-propose MM2IM, a hardware-software co-designed accelerator that combines Matrix
-Multiplication (MatMul) with col2IM to process TCONV layers on
-resource-constrained edge devices efficiently. Using the SECDA-TFLite design
-toolkit, we implement MM2IM and evaluate its performance across 261 TCONV
-problem configurations, achieving an average speedup of 1.9x against a
-dual-thread ARM Neon optimized CPU baseline. We then evaluate the performance
-of MM2IM on a range of TCONV layers from well-known generative models achieving
-up to 4.2x speedup, and compare it against similar resource-constrained TCONV
-accelerators, outperforming them by at least 2x GOPs/DSP. Finally, we evaluate
-MM2IM on the DCGAN and pix2pix GAN models, achieving up to 3x speedup and 2.4x
-energy reduction against the CPU baseline.</t>
+          <t>http://arxiv.org/abs/2507.07247v1</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>As large language models (LLMs) and visual language models (VLMs) grow in
+scale and application, attention mechanisms have become a central computational
+bottleneck due to their high memory and time complexity. While many efficient
+attention variants have been proposed, there remains a lack of rigorous
+evaluation on their actual energy usage and hardware resource demands during
+training. In this work, we benchmark eight attention mechanisms in training
+GPT-2 architecture, measuring key metrics including training time, GPU memory
+usage, FLOPS, CPU usage, and power consumption. Our results reveal that
+attention mechanisms with optimized kernel implementations, including Flash
+Attention, Locality-Sensitive Hashing (LSH) Attention, and Multi-Head Latent
+Attention (MLA), achieve the best energy efficiency. We further show that lower
+GPU power alone does not guarantee reduced energy use, as training time plays
+an equally important role. Our study highlights the importance of energy-aware
+benchmarking in attention design and provides a practical insight for selecting
+resource-efficient mechanisms. All our codes are available at GitHub.</t>
         </is>
       </c>
     </row>
@@ -1526,41 +1647,44 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Opto-ViT: Architecting a Near-Sensor Region of Interest-Aware Vision Transformer Accelerator with Silicon Photonics</t>
+          <t>CCQ: Convolutional Code for Extreme Low-bit Quantization in LLMs</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mehrdad Morsali, Chengwei Zhou, Deniz Najafi, Sreetama Sarkar, Pietro Mercati, Navid Khoshavi, Peter Beerel, Mahdi Nikdast, Gourav Datta, Shaahin Angizi</t>
+          <t>Efficiency, Hardware, Speed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2507.07044v1</t>
+          <t>Zhaojing Zhou, Xunchao Li, Minghao Li, Handi Zhang, Haoshuang Wang, Wenbin Chang, Yiqun Liu, Qingqing Dang, Dianhai Yu, Yanjun Ma, Haifeng Wang</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vision Transformers (ViTs) have emerged as a powerful architecture for
-computer vision tasks due to their ability to model long-range dependencies and
-global contextual relationships. However, their substantial compute and memory
-demands hinder efficient deployment in scenarios with strict energy and
-bandwidth limitations. In this work, we propose OptoViT, the first near-sensor,
-region-aware ViT accelerator leveraging silicon photonics (SiPh) for real-time
-and energy-efficient vision processing. Opto-ViT features a hybrid
-electronic-photonic architecture, where the optical core handles
-compute-intensive matrix multiplications using Vertical-Cavity Surface-Emitting
-Lasers (VCSELs) and Microring Resonators (MRs), while nonlinear functions and
-normalization are executed electronically. To reduce redundant computation and
-patch processing, we introduce a lightweight Mask Generation Network (MGNet)
-that identifies regions of interest in the current frame and prunes irrelevant
-patches before ViT encoding. We further co-optimize the ViT backbone using
-quantization-aware training and matrix decomposition tailored for photonic
-constraints. Experiments across device fabrication, circuit and architecture
-co-design, to classification, detection, and video tasks demonstrate that
-OptoViT achieves 100.4 KFPS/W with up to 84% energy savings with less than 1.6%
-accuracy loss, while enabling scalable and efficient ViT deployment at the
-edge.</t>
+          <t>http://arxiv.org/abs/2507.07145v1</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>The rapid scaling of Large Language Models (LLMs) elevates inference costs
+and compounds substantial deployment barriers. While quantization to 8 or 4
+bits mitigates this, sub-3-bit methods face severe accuracy, scalability, and
+efficiency degradation. We propose Convolutional Code Quantization (CCQ), an
+inference-optimized quantization approach compressing LLMs to 2.0-2.75 bits
+with minimal accuracy loss. Departing from error-prone scalar quantization or
+slow vector quantization, CCQ integrates a hardware-aware bit-shift encoding
+and decoding solution with Convolutional Code, Hybrid Encoding, and Code
+Cluster, jointly overcoming accuracy-speed bottlenecks. We construct a
+lookup-free encoding space, enabling a linear mapping between the codebook and
+weight vectors, thereby optimizing inference performance. Meanwhile, by drawing
+on the concept of data mapping from vector quantization, we minimize the
+performance degradation of the model under extremely low-bit conditions.
+Experiments demonstrate that CCQ achieves outstanding performance on LLMs
+across various benchmarks. We compress DeepSeek-V3 (671B total parameters) to
+184GB and ERNIE-4.5-300B-A47B to 89GB, enabling single-GPU deployment of ERNIE
+4.5 and eliminating inter-card communication. The 2-bit ERNIE-4.5-300B-A47B
+model and inference engine have been open-sourced.</t>
         </is>
       </c>
     </row>
@@ -1572,37 +1696,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Towards LLM-based Root Cause Analysis of Hardware Design Failures</t>
+          <t>Medical Image Segmentation Using Advanced Unet: VMSE-Unet and VM-Unet CBAM+</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Siyu Qiu, Muzhi Wang, Raheel Afsharmazayejani, Mohammad Moradi Shahmiri, Benjamin Tan, Hammond Pearce</t>
+          <t>Architecture, Efficiency</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2507.06512v1</t>
+          <t>Sayandeep Kanrar, Raja Piyush, Qaiser Razi, Debanshi Chakraborty, Vikas Hassija, GSS Chalapathi</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>With advances in large language models (LLMs), new opportunities have emerged
-to develop tools that support the digital hardware design process. In this
-work, we explore how LLMs can assist with explaining the root cause of design
-issues and bugs that are revealed during synthesis and simulation, a necessary
-milestone on the pathway towards widespread use of LLMs in the hardware design
-process and for hardware security analysis. We find promising results: for our
-corpus of 34 different buggy scenarios, OpenAI's o3-mini reasoning model
-reached a correct determination 100% of the time under pass@5 scoring, with
-other state of the art models and configurations usually achieving more than
-80% performance and more than 90% when assisted with retrieval-augmented
-generation.</t>
+          <t>http://arxiv.org/abs/2507.00511v2</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>In this paper, we present the VMSE U-Net and VM-Unet CBAM+ model, two
+cutting-edge deep learning architectures designed to enhance medical image
+segmentation. Our approach integrates Squeeze-and-Excitation (SE) and
+Convolutional Block Attention Module (CBAM) techniques into the traditional VM
+U-Net framework, significantly improving segmentation accuracy, feature
+localization, and computational efficiency. Both models show superior
+performance compared to the baseline VM-Unet across multiple datasets. Notably,
+VMSEUnet achieves the highest accuracy, IoU, precision, and recall while
+maintaining low loss values. It also exhibits exceptional computational
+efficiency with faster inference times and lower memory usage on both GPU and
+CPU. Overall, the study suggests that the enhanced architecture VMSE-Unet is a
+valuable tool for medical image analysis. These findings highlight its
+potential for real-world clinical applications, emphasizing the importance of
+further research to optimize accuracy, robustness, and computational
+efficiency.</t>
         </is>
       </c>
     </row>
@@ -1619,40 +1752,46 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Energy-Efficient Supervised Learning with a Binary Stochastic Forward-Forward Algorithm</t>
+          <t>EA: An Event Autoencoder for High-Speed Vision Sensing</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Risi Jaiswal, Supriyo Datta, Joseph G. Makin</t>
+          <t>Architecture, Speed</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2507.06461v1</t>
+          <t>Riadul Islam, Joey Mulé, Dhandeep Challagundla, Shahmir Rizvi, Sean Carson</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Reducing energy consumption has become a pressing need for modern machine
-learning, which has achieved many of its most impressive results by scaling to
-larger and more energy-consumptive neural networks. Unfortunately, the main
-algorithm for training such networks, backpropagation, poses significant
-challenges for custom hardware accelerators, due to both its serial
-dependencies and the memory footprint needed to store forward activations for
-the backward pass. Alternatives to backprop, although less effective, do exist;
-here the main computational bottleneck becomes matrix multiplication. In this
-study, we derive forward-forward algorithms for binary, stochastic units.
-Binarization of the activations transforms matrix multiplications into indexing
-operations, which can be executed efficiently in hardware. Stochasticity,
-combined with tied weights across units with different biases, bypasses the
-information bottleneck imposed by binary units. Furthermore, although slow and
-expensive in traditional hardware, binary sampling that is very fast can be
-implemented cheaply with p-bits (probabilistic bits), novel devices made up of
-unstable magnets. We evaluate our proposed algorithms on the MNIST,
-Fashion-MNIST, and CIFAR-10 datasets, showing that its performance is close to
-real-valued forward-forward, but with an estimated energy savings of about one
-order of magnitude.</t>
+          <t>http://arxiv.org/abs/2507.06459v1</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>High-speed vision sensing is essential for real-time perception in
+applications such as robotics, autonomous vehicles, and industrial automation.
+Traditional frame-based vision systems suffer from motion blur, high latency,
+and redundant data processing, limiting their performance in dynamic
+environments. Event cameras, which capture asynchronous brightness changes at
+the pixel level, offer a promising alternative but pose challenges in object
+detection due to sparse and noisy event streams. To address this, we propose an
+event autoencoder architecture that efficiently compresses and reconstructs
+event data while preserving critical spatial and temporal features. The
+proposed model employs convolutional encoding and incorporates adaptive
+threshold selection and a lightweight classifier to enhance recognition
+accuracy while reducing computational complexity. Experimental results on the
+existing Smart Event Face Dataset (SEFD) demonstrate that our approach achieves
+comparable accuracy to the YOLO-v4 model while utilizing up to $35.5\times$
+fewer parameters. Implementations on embedded platforms, including Raspberry Pi
+4B and NVIDIA Jetson Nano, show high frame rates ranging from 8 FPS up to 44.8
+FPS. The proposed classifier exhibits up to 87.84x better FPS than the
+state-of-the-art and significantly improves event-based vision performance,
+making it ideal for low-power, high-speed applications in real-time edge
+computing.</t>
         </is>
       </c>
     </row>
@@ -1669,139 +1808,43 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SLDB: An End-To-End Heterogeneous System-on-Chip Benchmark Suite for LLM-Aided Design</t>
+          <t>Efficiency-Effectiveness Reranking FLOPs for LLM-based Rerankers</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Elisavet Lydia Alvanaki, Kevin Lee, Luca P. Carloni</t>
+          <t>Architecture, Efficiency, Hardware, Throughput</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2507.06376v1</t>
+          <t>Zhiyuan Peng, Ting-ruen Wei, Tingyu Song, Yilun Zhao, Yi Fang</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Over the last few years, Large Language Models (LLMs) have emerged as a
-valuable tool for Electronic Design Automation (EDA). State-of-the-art research
-in LLM-aided design has demonstrated the ability of LLMs to generate
-syntactically correct RTL code, showcasing encouraging prospects for
-integrating AI into the hardware design process. A key enabler of these
-advancements is the availability of high-quality benchmarks to evaluate new
-approaches. However, existing datasets and benchmarks fall short of
-system-level design, as they focus primarily on component-level information and
-low-complexity designs. To address this gap, we introduce the System-Level
-Design Benchmark (SLDB), a dataset tailored for evaluating LLMs in system-level
-integration and configuration tasks. SLDB includes a curated benchmark suite of
-10 baseline SoC designs, whose components can be combined into an exponential
-number of distinct tile-based SoCs through a synthetic library. The dataset
-provides full SoC configurations, accelerator integration code, communication
-parameters, and accelerator-aware system configurations, along with
-testing-application code, compatible with the ESP platform[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-07-08</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>hdl2v: A Code Translation Dataset for Enhanced LLM Verilog Generation</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Charles Hong, Brendan Roberts, Huijae An, Alex Um, Advay Ratan, Yakun Sophia Shao</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2506.04544v2</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Large language models (LLMs) are playing an increasingly large role in
-domains such as code generation, including hardware code generation, where
-Verilog is the key language. However, the amount of publicly available Verilog
-code pales in comparison to the amount of code available for software languages
-like Python. In this work, we present hdl2v ("HDL-to-Verilog"), a dataset which
-seeks to increase the amount of available human-written Verilog data by
-translating or compiling three other hardware description languages - VHDL,
-Chisel, and PyMTL3 - to Verilog. Furthermore, we demonstrate the value of hdl2v
-in enhancing LLM Verilog generation by improving performance of a 32
-billion-parameter open-weight model by up to 23% (pass@10) in VerilogEvalV2,
-without utilizing any data augmentation or knowledge distillation from larger
-models. We also show hdl2v's ability to boost the performance of a data
-augmentation-based fine-tuning approach by 63%. Finally, we characterize and
-analyze our dataset to better understand which characteristics of
-HDL-to-Verilog datasets can be expanded upon in future work for even better
-performance.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-07-08</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2025-07-08</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Multi-Queue SSD I/O Modeling &amp; Its Implications for Data Structure Design</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Erin Ransom, Andrew Lim, Michael Mitzenmacher</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2507.06349v1</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Understanding the performance profiles of storage devices and how best to
-utilize them has always been non-trivial due to factors such as seek times,
-caching, scheduling, concurrent access, flash wear-out, and garbage collection.
-However, analytical frameworks that provide simplified abstractions of storage
-performance can still be accurate enough to evaluate external memory algorithms
-and data structures at the design stage. For example, the Disk Access Machine
-(DAM) model assumes that a storage device transfers data in fixed-size blocks
-of size B and that all transfers have unit latency. This abstraction is already
-sufficient to explain some of the benefits of data structures such as B-trees
-and Log-Structured Merge trees (LSM trees); however, storage technology
-advances have significantly reduced current models' accuracy and utility.
-  This paper introduces the Multi-Queue Solid State Drive (MQSSD) model, a new
-storage abstraction. This model builds upon previous models and aims to more
-accurately represent the performance characteristics of modern storage
-hardware. We identify key performance-critical aspects of modern multi-queue
-solid-state drives on which we base our model and demonstrate these
-characteristics on actual hardware. We then show how our model can be applied
-to LSM-tree-based storage engines to optimize them for modern storage hardware.
-We highlight that leveraging concurrent access is crucial for fully utilizing
-the high throughput of multi-queue SSDs, enabling designs that may appear
-counterintuitive under traditional paradigms We then validate these insights
-through experiments using Facebook's LSM-tree-based key-value store, RocksDB.
-We conclude that the MQSSD model offers a more accurate abstraction of modern
-hardware than previous models, allowing for greater insight and optimization.</t>
+          <t>http://arxiv.org/abs/2507.06223v1</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Large Language Models (LLMs) have recently been applied to reranking tasks in
+information retrieval, achieving strong performance. However, their high
+computational demands often hinder practical deployment. Existing studies
+evaluate the efficiency of LLM-based rerankers using proxy metrics such as
+latency, the number of forward passes, input tokens, and output tokens.
+However, these metrics depend on hardware and running-time choices (\eg
+parallel or not, batch size, etc), and often fail to account for model size,
+making it difficult to interpret and obscuring the evaluation of the
+efficiency-effectiveness tradeoff. To address this issue, we propose
+E\textsuperscript{2}R-FLOPs, for LLM-based rerankers: ranking metrics per
+PetaFLOP (RPP) for relevance per compute and queries per PetaFLOP (QPP) for
+hardware-agnostic throughput. Companied with the new metrics, an interpretable
+FLOPs estimator is built to estimate the FLOPs of an LLM-based reranker even
+without running any experiments. Based on the proposed metrics, we conduct
+comprehensive experiments to evaluate a wide range of LLM-based rerankers with
+different architecture, studying the efficiency-effectiveness trade-off and
+bringing this issue to the attention of the research community.</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1842,15 +1885,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>匹配关键词</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>作者</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
@@ -1874,15 +1922,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Embodied AI</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Yongheng Zhang, Xu Liu, Ruihan Tao, Qiguang Chen, Hao Fei, Wanxiang Che, Libo Qin</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2507.09876v1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Video understanding plays a vital role in bridging low-level visual signals
 with high-level cognitive reasoning, and is fundamental to applications such as
@@ -1922,15 +1975,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Embodied AI</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Di Wu, Jiaxin Fan, Junzhe Zang, Guanbo Wang, Wei Yin, Wenhao Li, Bo Jin</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2505.22050v2</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Embodied planning requires agents to make coherent multi-step decisions based
 on dynamic visual observations and natural language goals. While recent
@@ -1970,15 +2028,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>VLA, Vision-Language-Action</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Jialei Huang, Shuo Wang, Fanqi Lin, Yihang Hu, Chuan Wen, Yang Gao</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2507.09160v1</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Vision-Language-Action (VLA) models have shown remarkable achievements,
 driven by the rich implicit knowledge of their vision-language components.
@@ -2019,15 +2082,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>VLA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Juyi Lin, Amir Taherin, Arash Akbari, Arman Akbari, Lei Lu, Guangyu Chen, Taskin Padir, Xiaomeng Yang, Weiwei Chen, Yiqian Li, Xue Lin, David Kaeli, Pu Zhao, Yanzhi Wang</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2507.05116v2</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Recent large-scale Vision Language Action (VLA) models have shown superior
 performance in robotic manipulation tasks guided by natural language. However,
@@ -2068,15 +2136,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Embodied AI</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Jiaxin Huang, Ziwen Li, Hanlve Zhang, Runnan Chen, Xiao He, Yandong Guo, Wenping Wang, Tongliang Liu, Mingming Gong</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2507.07781v1</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>The integration of language and 3D perception is critical for embodied AI and
 robotic systems to perceive, understand, and interact with the physical world.
@@ -2122,15 +2195,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Embodied AI</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Lingfeng Zhang, Xiaoshuai Hao, Qinwen Xu, Qiang Zhang, Xinyao Zhang, Pengwei Wang, Jing Zhang, Zhongyuan Wang, Shanghang Zhang, Renjing Xu</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2502.13451v4</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Vision-and-language navigation (VLN) is a key task in Embodied AI, requiring
 agents to navigate diverse and unseen environments while following natural
@@ -2172,15 +2250,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Embodied AI</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Hanjing Ye, Yu Zhan, Weixi Situ, Guangcheng Chen, Jingwen Yu, Ziqi Zhao, Kuanqi Cai, Arash Ajoudani, Hong Zhang</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2505.07446v2</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Tracking a target person from robot-egocentric views is crucial for
 developing autonomous robots that provide continuous personalized assistance or
@@ -2220,15 +2303,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Embodied AI</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Zhenyang Liu, Sixiao Zheng, Siyu Chen, Cairong Zhao, Longfei Liang, Xiangyang Xue, Yanwei Fu</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2507.06719v1</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Open-vocabulary 3D visual grounding aims to localize target objects based on
 free-form language queries, which is crucial for embodied AI applications such
@@ -2276,15 +2364,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Embodied AI</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Sahiti Yerramilli, Jayant Sravan Tamarapalli, Jonathan Francis, Eric Nyberg</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2404.02359v2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Multimodal machine learning has gained significant attention in recent years
 due to its potential for integrating information from multiple modalities to
@@ -2309,48 +2402,6 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-07-08</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-07-08</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Evaluation of Habitat Robotics using Large Language Models</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>William Li, Lei Hamilton, Kaise Al-natour, Sanjeev Mohindra</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2507.06157v1</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>This paper focuses on evaluating the effectiveness of Large Language Models
-at solving embodied robotic tasks using the Meta PARTNER benchmark. Meta PARTNR
-provides simplified environments and robotic interactions within randomized
-indoor kitchen scenes. Each randomized kitchen scene is given a task where two
-robotic agents cooperatively work together to solve the task. We evaluated
-multiple frontier models on Meta PARTNER environments. Our results indicate
-that reasoning models like OpenAI o3-mini outperform non-reasoning models like
-OpenAI GPT-4o and Llama 3 when operating in PARTNR's robotic embodied
-environments. o3-mini displayed outperform across centralized, decentralized,
-full observability, and partial observability configurations. This provides a
-promising avenue of research for embodied robotic development.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2362,7 +2413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2388,15 +2439,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>匹配关键词</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>作者</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
@@ -2420,15 +2476,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>LoRA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>David Ponce, Thierry Etchegoyhen, Javier Del Ser</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2507.10059v1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Large Language Models (LLM) have achieved remarkable performance across a
 large number of tasks, but face critical deployment and usage barriers due to
@@ -2467,15 +2528,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Speculative, Speculative Decoding</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Xiangchen Li, Dimitrios Spatharakis, Saeid Ghafouri, Jiakun Fan, Hans Vandierendonck, Deepu John, Bo Ji, Dimitrios Nikolopoulos</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2506.09397v4</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>The growing gap between the increasing complexity of large language models
 (LLMs) and the limited computational budgets of edge devices poses a key
@@ -2503,30 +2569,688 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Cascade Speculative Drafting for Even Faster LLM Inference</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Speculative, Speculative Decoding</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ziyi Chen, Xiaocong Yang, Jiacheng Lin, Chenkai Sun, Kevin Chen-Chuan Chang, Jie Huang</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2312.11462v5</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Introduced to enhance the efficiency of large language model (LLM) inference,
+speculative decoding operates by having a smaller model generate a draft. A
+larger target model then reviews this draft to align with its output, and any
+acceptance by the target model results in a reduction of the number of the
+target model runs, ultimately improving efficiency. However, the drafting
+process in speculative decoding includes slow autoregressive generation and
+allocates equal time to generating tokens, irrespective of their importance.
+These inefficiencies collectively contribute to the suboptimal performance of
+speculative decoding. To further improve LLM inference, we introduce Cascade
+Speculative Drafting (CS Drafting), a speculative execution algorithm that
+incorporates two types of cascades. The Vertical Cascade eliminates
+autoregressive generation from neural models, while the Horizontal Cascade
+optimizes time allocation in drafting for improved efficiency. Combining both
+cascades, CS Drafting achieves greater speedup compared to the baselines in our
+experiments, while preserving the same output distribution as the target model.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Dynamic Parameter Memory: Temporary LoRA-Enhanced LLM for Long-Sequence Emotion Recognition in Conversation</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LoRA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Jialong Mai, Xiaofen Xing, Yawei Li, Zhipeng Li, Jingyuan Xing, Xiangmin Xu</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.09076v1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Recent research has focused on applying speech large language model (SLLM) to
+improve speech emotion recognition (SER). However, the inherently high frame
+rate in speech modality severely limits the signal processing and understanding
+capabilities of SLLM. For example, a SLLM with a 4K context window can only
+process 80 seconds of audio at 50Hz feature sampling rate before reaching its
+capacity limit. Input token compression methods used in SLLM overlook the
+continuity and inertia of emotions across multiple conversation turns. This
+paper proposes a Dynamic Parameter Memory (DPM) mechanism with contextual
+semantics and sentence-level emotion encoding, enabling processing of
+unlimited-length audio with limited context windows in SLLM. Specifically, DPM
+progressively encodes sentence-level information and emotions into a temporary
+LoRA module during inference to effectively "memorize" the contextual
+information. We trained an emotion SLLM as a backbone and incorporated our DPM
+into inference for emotion recognition in conversation (ERC). Experimental
+results on the IEMOCAP dataset show that DPM significantly improves the emotion
+recognition capabilities of SLLM when processing long audio sequences,
+achieving state-of-the-art performance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>On Evaluating Performance of LLM Inference Serving Systems</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Speculative, Speculative Decoding</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Amey Agrawal, Nitin Kedia, Anmol Agarwal, Jayashree Mohan, Nipun Kwatra, Souvik Kundu, Ramachandran Ramjee, Alexey Tumanov</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.09019v1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>The rapid evolution of Large Language Model (LLM) inference systems has
+yielded significant efficiency improvements. However, our systematic analysis
+reveals that current evaluation methodologies frequently exhibit fundamental
+flaws, often manifesting as common evaluation anti-patterns that obscure true
+performance characteristics and impede scientific progress. Through a
+comprehensive examination of recent systems, we identify recurring
+anti-patterns across three key dimensions: Baseline Fairness, Evaluation Setup,
+and Metric Design. These anti-patterns are uniquely problematic for LLM
+inference due to its dual-phase nature combining distinct prefill and decode
+operations, its handling of highly heterogeneous workloads, and its strict
+temporal requirements for interactive use. We demonstrate how common
+anti-patterns -- such as inadequate baseline comparisons that conflate
+engineering effort with algorithmic novelty, workload selections that fail to
+represent production scenarios, and metric normalizations that hide substantial
+performance variability like generation stalls-lead to misleading conclusions.
+To address these challenges, we provide a comprehensive checklist derived from
+our analysis, establishing a framework for recognizing and avoiding these
+anti-patterns in favor of robust LLM inference evaluation. To demonstrate the
+practical application of our framework, we present a case study analyzing
+speculative decoding, a technique whose bursty, non-uniform token generation is
+easily misinterpreted when evaluated using approaches characteristic of these
+anti-patterns. Our work establishes a rigorous foundation for evaluation
+methodology, enabling meaningful comparisons, ensuring reproducible results,
+and ultimately accelerating genuine progress in LLM inference systems by moving
+beyond common anti-patterns to align evaluation with real-world requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BlockFFN: Towards End-Side Acceleration-Friendly Mixture-of-Experts with Chunk-Level Activation Sparsity</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Speculative, Speculative Decoding</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Chenyang Song, Weilin Zhao, Xu Han, Chaojun Xiao, Yingfa Chen, Yuxuan Li, Zhiyuan Liu, Maosong Sun</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.08771v1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>To alleviate the computational burden of large language models (LLMs),
+architectures with activation sparsity, represented by mixture-of-experts
+(MoE), have attracted increasing attention. However, the non-differentiable and
+inflexible routing of vanilla MoE hurts model performance. Moreover, while each
+token activates only a few parameters, these sparsely-activated architectures
+exhibit low chunk-level sparsity, indicating that the union of multiple
+consecutive tokens activates a large ratio of parameters. Such a sparsity
+pattern is unfriendly for acceleration under low-resource conditions (e.g.,
+end-side devices) and incompatible with mainstream acceleration techniques
+(e.g., speculative decoding). To address these challenges, we introduce a novel
+MoE architecture, BlockFFN, as well as its efficient training and deployment
+techniques. Specifically, we use a router integrating ReLU activation and
+RMSNorm for differentiable and flexible routing. Next, to promote both
+token-level sparsity (TLS) and chunk-level sparsity (CLS), CLS-aware training
+objectives are designed, making BlockFFN more acceleration-friendly. Finally,
+we implement efficient acceleration kernels, combining activation sparsity and
+speculative decoding for the first time. The experimental results demonstrate
+the superior performance of BlockFFN over other MoE baselines, achieving over
+80% TLS and 70% 8-token CLS. Our kernels achieve up to 3.67$\times$ speedup on
+real end-side devices than dense models. All codes and checkpoints are
+available publicly (https://github.com/thunlp/BlockFFN).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SpecDec++: Boosting Speculative Decoding via Adaptive Candidate Lengths</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Speculative, Speculative Decoding</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Kaixuan Huang, Xudong Guo, Mengdi Wang</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2405.19715v3</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Speculative decoding reduces the inference latency of a target large language
+model via utilizing a smaller and faster draft model. Its performance depends
+on a hyperparameter K -- the candidate length, i.e., the number of candidate
+tokens for the target model to verify in each round. However, previous methods
+often use simple heuristics to choose K, which may result in sub-optimal
+performance. We study the choice of the candidate length K and formulate it as
+a Markov Decision Process. We theoretically show that the optimal policy of
+this Markov decision process takes the form of a threshold policy, i.e., the
+current speculation should stop and be verified when the probability of getting
+a rejection exceeds a threshold value. Motivated by this theory, we propose
+SpecDec++, an enhanced version of speculative decoding that adaptively
+determines the candidate length on the fly. We augment the draft model with a
+trained acceptance prediction head to predict the conditional acceptance
+probability of the candidate tokens. SpecDec++ will stop the current
+speculation when the predicted probability that at least one token gets
+rejected exceeds a threshold. We implement SpecDec++ and apply it to the
+llama-2-chat 7B &amp; 70B model pair. Our adaptive method achieves a 2.04x speedup
+on the Alpaca dataset (7.2% improvement over the baseline speculative
+decoding). On the GSM8K and HumanEval datasets, our method achieves a 2.26x
+speedup (9.4% improvement) and 2.23x speedup (11.1% improvement), respectively.
+The code of this paper is available at
+https://github.com/Kaffaljidhmah2/SpecDec_pp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Low-rank Momentum Factorization for Memory Efficient Training</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LoRA, Low-rank</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pouria Mahdavinia, Mehrdad Mahdavi</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.08091v1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Fine-tuning large foundation models presents significant memory challenges
+due to stateful optimizers like AdamW, often requiring several times more GPU
+memory than inference. While memory-efficient methods like parameter-efficient
+fine-tuning (e.g., LoRA) and optimizer state compression exist, recent
+approaches like GaLore bridge these by using low-rank gradient projections and
+subspace moment accumulation. However, such methods may struggle with fixed
+subspaces or computationally costly offline resampling (e.g., requiring
+full-matrix SVDs). We propose Momentum Factorized SGD (MoFaSGD), which
+maintains a dynamically updated low-rank SVD representation of the first-order
+momentum, closely approximating its full-rank counterpart throughout training.
+This factorization enables a memory-efficient fine-tuning method that
+adaptively updates the optimization subspace at each iteration. Crucially,
+MoFaSGD leverages the computed low-rank momentum factors to perform efficient
+spectrally normalized updates, offering an alternative to subspace moment
+accumulation. We establish theoretical convergence guarantees for MoFaSGD,
+proving it achieves an optimal rate for non-convex stochastic optimization
+under standard assumptions. Empirically, we demonstrate MoFaSGD's effectiveness
+on large language model alignment benchmarks, achieving a competitive trade-off
+between memory reduction (comparable to LoRA) and performance compared to
+state-of-the-art low-rank optimization methods. Our implementation is available
+at https://github.com/pmahdavi/MoFaSGD.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Exploring the Limits of Model Compression in LLMs: A Knowledge Distillation Study on QA Tasks</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Distill</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Joyeeta Datta, Niclas Doll, Qusai Ramadan, Zeyd Boukhers</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.07630v1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Large Language Models (LLMs) have demonstrated outstanding performance across
+a range of NLP tasks, however, their computational demands hinder their
+deployment in real-world, resource-constrained environments. This work
+investigates the extent to which LLMs can be compressed using Knowledge
+Distillation (KD) while maintaining strong performance on Question Answering
+(QA) tasks. We evaluate student models distilled from the Pythia and Qwen2.5
+families on two QA benchmarks, SQuAD and MLQA, under zero-shot and one-shot
+prompting conditions. Results show that student models retain over 90% of their
+teacher models' performance while reducing parameter counts by up to 57.1%.
+Furthermore, one-shot prompting yields additional performance gains over
+zero-shot setups for both model families. These findings underscore the
+trade-off between model efficiency and task performance, demonstrating that KD,
+combined with minimal prompting, can yield compact yet capable QA systems
+suitable for resource-constrained applications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TokenSwift: Lossless Acceleration of Ultra Long Sequence Generation</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Speculative, Speculative Decoding</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Tong Wu, Junzhe Shen, Zixia Jia, Yuxuan Wang, Zilong Zheng</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2502.18890v2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Generating ultra-long sequences with large language models (LLMs) has become
+increasingly crucial but remains a highly time-intensive task, particularly for
+sequences up to 100K tokens. While traditional speculative decoding methods
+exist, simply extending their generation limits fails to accelerate the process
+and can be detrimental. Through an in-depth analysis, we identify three major
+challenges hindering efficient generation: frequent model reloading, dynamic
+key-value (KV) management and repetitive generation. To address these issues,
+we introduce TOKENSWIFT, a novel framework designed to substantially accelerate
+the generation process of ultra-long sequences while maintaining the target
+model's inherent quality. Experimental results demonstrate that TOKENSWIFT
+achieves over 3 times speedup across models of varying scales (1.5B, 7B, 8B,
+14B) and architectures (MHA, GQA). This acceleration translates to hours of
+time savings for ultra-long sequence generation, establishing TOKENSWIFT as a
+scalable and effective solution at unprecedented lengths. Code can be found at
+https://github.com/bigai-nlco/TokenSwift.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>更新日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>发表日期</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>文章标题</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>匹配关键词</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>作者</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>摘要</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>GeLaCo: An Evolutionary Approach to Layer Compression</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Pruning</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>David Ponce, Thierry Etchegoyhen, Javier Del Ser</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.10059v1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Large Language Models (LLM) have achieved remarkable performance across a
+large number of tasks, but face critical deployment and usage barriers due to
+substantial computational requirements. Model compression methods, which aim to
+reduce model size while preserving its capacity, are an important means to
+mitigate these issues. Promising approaches along these lines, such as
+structured pruning, typically require costly empirical search for optimal
+variants and may run the risk of ignoring better solutions. In this work we
+introduce GeLaCo, an evolutionary approach to LLM compression via layer
+collapse. Our approach supports an efficient exploration of the compression
+solution space via population-based search and a module-wise similarity fitness
+function capturing attention, feed-forward, and hidden state representations.
+GeLaCo also supports both single and multi-objective evolutionary compression
+search, establishing the first Pareto frontier along compression and quality
+axes. We evaluate GeLaCo solutions via both perplexity-based and generative
+evaluations over foundational and instruction-tuned models, outperforming
+state-of-the-art alternatives.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SLED: A Speculative LLM Decoding Framework for Efficient Edge Serving</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Pruning</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Xiangchen Li, Dimitrios Spatharakis, Saeid Ghafouri, Jiakun Fan, Hans Vandierendonck, Deepu John, Bo Ji, Dimitrios Nikolopoulos</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2506.09397v4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>The growing gap between the increasing complexity of large language models
+(LLMs) and the limited computational budgets of edge devices poses a key
+challenge for efficient on-device inference, despite gradual improvements in
+hardware capabilities. Existing strategies, such as aggressive quantization,
+pruning, or remote inference, trade accuracy for efficiency or lead to
+substantial cost burdens. This position paper introduces a new framework that
+leverages speculative decoding, previously viewed primarily as a decoding
+acceleration technique for autoregressive generation of LLMs, as a promising
+approach specifically adapted for edge computing by orchestrating computation
+across heterogeneous devices. We propose \acronym, a framework that allows
+lightweight edge devices to draft multiple candidate tokens locally using
+diverse draft models, while a single, shared edge server verifies the tokens
+utilizing a more precise target model. To further increase the efficiency of
+verification, the edge server batch the diverse verification requests from
+devices. This approach supports device heterogeneity and reduces server-side
+memory footprint by sharing the same upstream target model across multiple
+devices. Our initial experiments with Jetson Orin Nano, Raspberry Pi 4B/5, and
+an edge server equipped with 4 Nvidia A100 GPUs indicate substantial benefits:
+2.2 more system throughput, 2.8 more system capacity, and better cost
+efficiency, all without sacrificing model accuracy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2025-07-12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Feature Extraction and Steering for Enhanced Chain-of-Thought Reasoning in Language Models</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sparse</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Zihao Li, Xu Wang, Yuzhe Yang, Ziyu Yao, Haoyi Xiong, Mengnan Du</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2505.15634v4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Large Language Models (LLMs) demonstrate the ability to solve reasoning and
+mathematical problems using the Chain-of-Thought (CoT) technique. Expanding CoT
+length, as seen in models such as DeepSeek-R1, significantly enhances this
+reasoning for complex problems, but requires costly and high-quality long CoT
+data and fine-tuning. This work, inspired by the deep thinking paradigm of
+DeepSeek-R1, utilizes a steering technique to enhance the reasoning ability of
+an LLM without external datasets. Our method first employs Sparse Autoencoders
+(SAEs) to extract interpretable features from vanilla CoT. These features are
+then used to steer the LLM's internal states during generation. Recognizing
+that many LLMs do not have corresponding pre-trained SAEs, we further introduce
+a novel SAE-free steering algorithm, which directly computes steering
+directions from the residual activations of an LLM, obviating the need for an
+explicit SAE. Experimental results demonstrate that both our SAE-based and
+subsequent SAE-free steering algorithms significantly enhance the reasoning
+capabilities of LLMs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2025-07-12</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Detecting and Pruning Prominent but Detrimental Neurons in Large Language Models</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Pruning</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Ameen Ali, Shahar Katz, Lior Wolf, Ivan Titov</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2507.09185v1</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Large language models (LLMs) often develop learned mechanisms specialized to
 specific datasets, such as reliance on domain-specific correlations, which
@@ -2545,33 +3269,145 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>2025-07-11</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BlockFFN: Towards End-Side Acceleration-Friendly Mixture-of-Experts with Chunk-Level Activation Sparsity</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sparse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Chenyang Song, Weilin Zhao, Xu Han, Chaojun Xiao, Yingfa Chen, Yuxuan Li, Zhiyuan Liu, Maosong Sun</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.08771v1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>To alleviate the computational burden of large language models (LLMs),
+architectures with activation sparsity, represented by mixture-of-experts
+(MoE), have attracted increasing attention. However, the non-differentiable and
+inflexible routing of vanilla MoE hurts model performance. Moreover, while each
+token activates only a few parameters, these sparsely-activated architectures
+exhibit low chunk-level sparsity, indicating that the union of multiple
+consecutive tokens activates a large ratio of parameters. Such a sparsity
+pattern is unfriendly for acceleration under low-resource conditions (e.g.,
+end-side devices) and incompatible with mainstream acceleration techniques
+(e.g., speculative decoding). To address these challenges, we introduce a novel
+MoE architecture, BlockFFN, as well as its efficient training and deployment
+techniques. Specifically, we use a router integrating ReLU activation and
+RMSNorm for differentiable and flexible routing. Next, to promote both
+token-level sparsity (TLS) and chunk-level sparsity (CLS), CLS-aware training
+objectives are designed, making BlockFFN more acceleration-friendly. Finally,
+we implement efficient acceleration kernels, combining activation sparsity and
+speculative decoding for the first time. The experimental results demonstrate
+the superior performance of BlockFFN over other MoE baselines, achieving over
+80% TLS and 70% 8-token CLS. Our kernels achieve up to 3.67$\times$ speedup on
+real end-side devices than dense models. All codes and checkpoints are
+available publicly (https://github.com/thunlp/BlockFFN).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A Multi-granularity Concept Sparse Activation and Hierarchical Knowledge Graph Fusion Framework for Rare Disease Diagnosis</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sparse</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mingda Zhang, Na Zhao, Jianglong Qin, Guoyu Ye, Ruixiang Tang</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.08529v1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Despite advances from medical large language models in healthcare,
+rare-disease diagnosis remains hampered by insufficient
+knowledge-representation depth, limited concept understanding, and constrained
+clinical reasoning. We propose a framework that couples multi-granularity
+sparse activation of medical concepts with a hierarchical knowledge graph. Four
+complementary matching algorithms, diversity control, and a five-level fallback
+strategy enable precise concept activation, while a three-layer knowledge graph
+(taxonomy, clinical features, instances) provides structured, up-to-date
+context. Experiments on the BioASQ rare-disease QA set show BLEU gains of 0.09,
+ROUGE gains of 0.05, and accuracy gains of 0.12, with peak accuracy of 0.89
+approaching the 0.90 clinical threshold. Expert evaluation confirms
+improvements in information quality, reasoning, and professional expression,
+suggesting our approach shortens the "diagnostic odyssey" for rare-disease
+patients.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>2024-07-15</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>An Empirical Study of Validating Synthetic Data for Formula Generation</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Prune</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Usneek Singh, José Cambronero, Sumit Gulwani, Aditya Kanade, Anirudh Khatry, Vu Le, Mukul Singh, Gust Verbruggen</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2407.10657v4</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Large language models (LLMs) can be leveraged to help with writing formulas
 in spreadsheets, but resources on these formulas are scarce, impacting both the
@@ -2590,33 +3426,209 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Evaluating SAE interpretability without explanations</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Sparse</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Gonçalo Paulo, Nora Belrose</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.08473v1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sparse autoencoders (SAEs) and transcoders have become important tools for
+machine learning interpretability. However, measuring how interpretable they
+are remains challenging, with weak consensus about which benchmarks to use.
+Most evaluation procedures start by producing a single-sentence explanation for
+each latent. These explanations are then evaluated based on how well they
+enable an LLM to predict the activation of a latent in new contexts. This
+method makes it difficult to disentangle the explanation generation and
+evaluation process from the actual interpretability of the latents discovered.
+In this work, we adapt existing methods to assess the interpretability of
+sparse coders, with the advantage that they do not require generating natural
+language explanations as an intermediate step. This enables a more direct and
+potentially standardized assessment of interpretability. Furthermore, we
+compare the scores produced by our interpretability metrics with human
+evaluations across similar tasks and varying setups, offering suggestions for
+the community on improving the evaluation of these techniques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Generative Retrieval and Alignment Model: A New Paradigm for E-commerce Retrieval</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Sparse</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ming Pang, Chunyuan Yuan, Xiaoyu He, Zheng Fang, Donghao Xie, Fanyi Qu, Xue Jiang, Changping Peng, Zhangang Lin, Ching Law, Jingping Shao</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2504.01403v2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Traditional sparse and dense retrieval methods struggle to leverage general
+world knowledge and often fail to capture the nuanced features of queries and
+products. With the advent of large language models (LLMs), industrial search
+systems have started to employ LLMs to generate identifiers for product
+retrieval. Commonly used identifiers include (1) static/semantic IDs and (2)
+product term sets. The first approach requires creating a product ID system
+from scratch, missing out on the world knowledge embedded within LLMs. While
+the second approach leverages this general knowledge, the significant
+difference in word distribution between queries and products means that
+product-based identifiers often do not align well with user search queries,
+leading to missed product recalls. Furthermore, when queries contain numerous
+attributes, these algorithms generate a large number of identifiers, making it
+difficult to assess their quality, which results in low overall recall
+efficiency.
+  To address these challenges, this paper introduces a novel e-commerce
+retrieval paradigm: the Generative Retrieval and Alignment Model (GRAM). GRAM
+employs joint training on text information from both queries and products to
+generate shared text identifier codes, effectively bridging the gap between
+queries and products. This approach not only enhances the connection between
+queries and products but also improves inference efficiency. The model uses a
+co-alignment strategy to generate codes optimized for maximizing retrieval
+efficiency. Additionally, it introduces a query-product scoring mechanism to
+compare product values across different codes, further boosting retrieval
+efficiency. Extensive offline and online A/B testing demonstrates that GRAM
+significantly outperforms traditional models and the latest generative
+retrieval models, confirming its effectiveness and practicality.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Navigate the Unknown: Enhancing LLM Reasoning with Intrinsic Motivation Guided Exploration</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Sparse</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Jingtong Gao, Ling Pan, Yejing Wang, Rui Zhong, Chi Lu, Qingpeng Cai, Peng Jiang, Xiangyu Zhao</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2505.17621v3</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Reinforcement learning (RL) has emerged as a pivotal method for improving the
+reasoning capabilities of Large Language Models (LLMs). However, prevalent RL
+approaches such as Proximal Policy Optimization (PPO) and Group-Regularized
+Policy Optimization (GRPO) face critical limitations due to their reliance on
+sparse outcome-based rewards and inadequate mechanisms for incentivizing
+exploration. These limitations result in inefficient guidance for multi-step
+reasoning processes. Specifically, sparse reward signals fail to deliver
+effective or sufficient feedback, particularly for challenging problems.
+Furthermore, such reward structures induce systematic biases that prioritize
+exploitation of familiar trajectories over novel solution discovery. These
+shortcomings critically hinder performance in complex reasoning tasks, which
+inherently demand iterative refinement across ipntermediate steps. To address
+these challenges, we propose an Intrinsic Motivation guidEd exploratioN meThOd
+foR LLM Reasoning (i-MENTOR), a novel method designed to both deliver dense
+rewards and amplify explorations in the RL-based training paradigm. i-MENTOR
+introduces three key innovations: trajectory-aware exploration rewards that
+mitigate bias in token-level strategies while maintaining computational
+efficiency; dynamic reward scaling to stabilize exploration and exploitation in
+large action spaces; and advantage-preserving reward implementation that
+maintains advantage distribution integrity while incorporating exploratory
+guidance. Experiments across three public datasets demonstrate i-MENTOR's
+effectiveness with a 22.39% improvement on the difficult dataset Countdown-4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>2025-07-10</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>2025-07-10</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Skip a Layer or Loop it? Test-Time Depth Adaptation of Pretrained LLMs</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Prune, Pruning</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Ziyue Li, Yang Li, Tianyi Zhou</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2507.07996v1</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Can a pretrained neural network adapt its architecture to different inputs
 without any finetuning? Do we need all layers for simple tasks, and are they
@@ -2644,33 +3656,644 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-11-12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Constrain Alignment with Sparse Autoencoders</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Sparse</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Qingyu Yin, Chak Tou Leong, Minjun Zhu, Hanqi Yan, Qiang Zhang, Yulan He, Wenjie Li, Jun Wang, Yue Zhang, Linyi Yang</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2411.07618v4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>The alignment of large language models (LLMs) with human preferences remains
+a key challenge. While post-training techniques like Reinforcement Learning
+from Human Feedback (RLHF) and Direct Preference Optimization (DPO) have
+achieved notable success, they often introduce computational inefficiencies and
+training instability. In this paper, we propose Feature-level constrained
+Preference Optimization (FPO), a novel method designed to simplify the
+alignment process while ensuring stability. FPO leverages pre-trained Sparse
+Autoencoders (SAEs) and introduces feature-level constraints, allowing for
+efficient, sparsity-enforced alignment. Our approach enjoys efficiency by using
+sparse features activated in a well-trained sparse autoencoder and the quality
+of sequential KL divergence by using the feature-level offline reference.
+Experimental results on benchmark datasets demonstrate that FPO achieves a
+5.08% absolute improvement in win rate with much lower computational cost
+compared to state-of-the-art baselines, making it a promising solution for
+efficient and controllable LLM alignments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MoSE: Skill-by-Skill Mixture-of-Expert Learning for Autonomous Driving</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sparse</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Lu Xu, Jiaqian Yu, Xiongfeng Peng, Yiwei Chen, Weiming Li, Jaewook Yoo, Sunghyun Chunag, Dongwook Lee, Daehyun Ji, Chao Zhang</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.07818v1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Recent studies show large language models (LLMs) and vision language models
+(VLMs) trained using web-scale data can empower end-to-end autonomous driving
+systems for a better generalization and interpretation. Specifically, by
+dynamically routing inputs to specialized subsets of parameters, the
+Mixture-of-Experts (MoE) technique enables general LLMs or VLMs to achieve
+substantial performance improvements while maintaining computational
+efficiency. However, general MoE models usually demands extensive training data
+and complex optimization. In this work, inspired by the learning process of
+human drivers, we propose a skill-oriented MoE, called MoSE, which mimics human
+drivers' learning process and reasoning process, skill-by-skill and
+step-by-step. We propose a skill-oriented routing mechanism that begins with
+defining and annotating specific skills, enabling experts to identify the
+necessary driving competencies for various scenarios and reasoning tasks,
+thereby facilitating skill-by-skill learning. Further align the driving process
+to multi-step planning in human reasoning and end-to-end driving models, we
+build a hierarchical skill dataset and pretrain the router to encourage the
+model to think step-by-step. Unlike multi-round dialogs, MoSE integrates
+valuable auxiliary tasks (e.g.\ description, reasoning, planning) in one single
+forward process without introducing any extra computational cost. With less
+than 3B sparsely activated parameters, our model outperforms several 8B+
+parameters on CODA AD corner case reasoning task. Compared to existing methods
+based on open-source models and data, our approach achieves state-of-the-art
+performance with significantly reduced activated model size (at least by
+$62.5\%$) with a single-turn conversation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>When Large Language Models Meet Law: Dual-Lens Taxonomy, Technical Advances, and Ethical Governance</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Sparse</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Peizhang Shao, Linrui Xu, Jinxi Wang, Wei Zhou, Xingyu Wu</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.07748v1</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>This paper establishes the first comprehensive review of Large Language
+Models (LLMs) applied within the legal domain. It pioneers an innovative dual
+lens taxonomy that integrates legal reasoning frameworks and professional
+ontologies to systematically unify historical research and contemporary
+breakthroughs. Transformer-based LLMs, which exhibit emergent capabilities such
+as contextual reasoning and generative argumentation, surmount traditional
+limitations by dynamically capturing legal semantics and unifying evidence
+reasoning. Significant progress is documented in task generalization, reasoning
+formalization, workflow integration, and addressing core challenges in text
+processing, knowledge integration, and evaluation rigor via technical
+innovations like sparse attention mechanisms and mixture-of-experts
+architectures. However, widespread adoption of LLM introduces critical
+challenges: hallucination, explainability deficits, jurisdictional adaptation
+difficulties, and ethical asymmetry. This review proposes a novel taxonomy that
+maps legal roles to NLP subtasks and computationally implements the Toulmin
+argumentation framework, thus systematizing advances in reasoning, retrieval,
+prediction, and dispute resolution. It identifies key frontiers including
+low-resource systems, multimodal evidence integration, and dynamic rebuttal
+handling. Ultimately, this work provides both a technical roadmap for
+researchers and a conceptual framework for practitioners navigating the
+algorithmic future, laying a robust foundation for the next era of legal
+artificial intelligence. We have created a GitHub repository to index the
+relevant papers: https://github.com/Kilimajaro/LLMs_Meet_Law.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>KeyKnowledgeRAG (K^2RAG): An Enhanced RAG method for improved LLM question-answering capabilities</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sparse</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Hruday Markondapatnaikuni, Basem Suleiman, Abdelkarim Erradi, Shijing Chen</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.07695v1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Fine-tuning is an immensely resource-intensive process when retraining Large
+Language Models (LLMs) to incorporate a larger body of knowledge. Although many
+fine-tuning techniques have been developed to reduce the time and computational
+cost involved, the challenge persists as LLMs continue to grow in size and
+complexity. To address this, a new approach to knowledge expansion in LLMs is
+needed. Retrieval-Augmented Generation (RAG) offers one such alternative by
+storing external knowledge in a database and retrieving relevant chunks to
+support question answering. However, naive implementations of RAG face
+significant limitations in scalability and answer accuracy. This paper
+introduces KeyKnowledgeRAG (K2RAG), a novel framework designed to overcome
+these limitations. Inspired by the divide-and-conquer paradigm, K2RAG
+integrates dense and sparse vector search, knowledge graphs, and text
+summarization to improve retrieval quality and system efficiency. The framework
+also includes a preprocessing step that summarizes the training data,
+significantly reducing the training time. K2RAG was evaluated using the
+MultiHopRAG dataset, where the proposed pipeline was trained on the document
+corpus and tested on a separate evaluation set. Results demonstrated notable
+improvements over common naive RAG implementations. K2RAG achieved the highest
+mean answer similarity score of 0.57, and reached the highest third quartile
+(Q3) similarity of 0.82, indicating better alignment with ground-truth answers.
+In addition to improved accuracy, the framework proved highly efficient. The
+summarization step reduced the average training time of individual components
+by 93%, and execution speed was up to 40% faster than traditional knowledge
+graph-based RAG systems. K2RAG also demonstrated superior scalability,
+requiring three times less VRAM than several naive RAG implementations tested
+in this study.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Position: We Need An Algorithmic Understanding of Generative AI</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Sparse</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Oliver Eberle, Thomas McGee, Hamza Giaffar, Taylor Webb, Ida Momennejad</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.07544v1</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>What algorithms do LLMs actually learn and use to solve problems? Studies
+addressing this question are sparse, as research priorities are focused on
+improving performance through scale, leaving a theoretical and empirical gap in
+understanding emergent algorithms. This position paper proposes AlgEval: a
+framework for systematic research into the algorithms that LLMs learn and use.
+AlgEval aims to uncover algorithmic primitives, reflected in latent
+representations, attention, and inference-time compute, and their algorithmic
+composition to solve task-specific problems. We highlight potential
+methodological paths and a case study toward this goal, focusing on emergent
+search algorithms. Our case study illustrates both the formation of top-down
+hypotheses about candidate algorithms, and bottom-up tests of these hypotheses
+via circuit-level analysis of attention patterns and hidden states. The
+rigorous, systematic evaluation of how LLMs actually solve tasks provides an
+alternative to resource-intensive scaling, reorienting the field toward a
+principled understanding of underlying computations. Such algorithmic
+explanations offer a pathway to human-understandable interpretability, enabling
+comprehension of the model's internal reasoning performance measures. This can
+in turn lead to more sample-efficient methods for training and improving
+performance, as well as novel architectures for end-to-end and multi-agent
+systems.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Leveraging the Structure of Medical Data for Improved Representation Learning</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sparse</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Andrea Agostini, Sonia Laguna, Alain Ryser, Samuel Ruiperez-Campillo, Moritz Vandenhirtz, Nicolas Deperrois, Farhad Nooralahzadeh, Michael Krauthammer, Thomas M. Sutter, Julia E. Vogt</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.02987v2</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Building generalizable medical AI systems requires pretraining strategies
+that are data-efficient and domain-aware. Unlike internet-scale corpora,
+clinical datasets such as MIMIC-CXR offer limited image counts and scarce
+annotations, but exhibit rich internal structure through multi-view imaging. We
+propose a self-supervised framework that leverages the inherent structure of
+medical datasets. Specifically, we treat paired chest X-rays (i.e., frontal and
+lateral views) as natural positive pairs, learning to reconstruct each view
+from sparse patches while aligning their latent embeddings. Our method requires
+no textual supervision and produces informative representations. Evaluated on
+MIMIC-CXR, we show strong performance compared to supervised objectives and
+baselines being trained without leveraging structure. This work provides a
+lightweight, modality-agnostic blueprint for domain-specific pretraining where
+data is structured but scarce</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Neurosymbolic Feature Extraction for Identifying Forced Labor in Supply Chains</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Sparse</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Zili Wang, Frank Montabon, Kristin Yvonne Rozier</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.07217v1</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Supply chain networks are complex systems that are challenging to analyze;
+this problem is exacerbated when there are illicit activities involved in the
+supply chain, such as counterfeit parts, forced labor, or human trafficking.
+While machine learning (ML) can find patterns in complex systems like supply
+chains, traditional ML techniques require large training data sets. However,
+illicit supply chains are characterized by very sparse data, and the data that
+is available is often (purposely) corrupted or unreliable in order to hide the
+nature of the activities. We need to be able to automatically detect new
+patterns that correlate with such illegal activity over complex, even temporal
+data, without requiring large training data sets. We explore neurosymbolic
+methods for identifying instances of illicit activity in supply chains and
+compare the effectiveness of manual and automated feature extraction from news
+articles accurately describing illicit activities uncovered by authorities. We
+propose a question tree approach for querying a large language model (LLM) to
+identify and quantify the relevance of articles. This enables a systematic
+evaluation of the differences between human and machine classification of news
+articles related to forced labor in supply chains.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MoFE-Time: Mixture of Frequency Domain Experts for Time-Series Forecasting Models</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Sparse</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Yiwen Liu, Chenyu Zhang, Junjie Song, Siqi Chen, Sun Yin, Zihan Wang, Lingming Zeng, Yuji Cao, Junming Jiao</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.06502v1</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>As a prominent data modality task, time series forecasting plays a pivotal
+role in diverse applications. With the remarkable advancements in Large
+Language Models (LLMs), the adoption of LLMs as the foundational architecture
+for time series modeling has gained significant attention. Although existing
+models achieve some success, they rarely both model time and frequency
+characteristics in a pretraining-finetuning paradigm leading to suboptimal
+performance in predictions of complex time series, which requires both modeling
+periodicity and prior pattern knowledge of signals. We propose MoFE-Time, an
+innovative time series forecasting model that integrates time and frequency
+domain features within a Mixture of Experts (MoE) network. Moreover, we use the
+pretraining-finetuning paradigm as our training framework to effectively
+transfer prior pattern knowledge across pretraining and finetuning datasets
+with different periodicity distributions. Our method introduces both frequency
+and time cells as experts after attention modules and leverages the MoE routing
+mechanism to construct multidimensional sparse representations of input
+signals. In experiments on six public benchmarks, MoFE-Time has achieved new
+state-of-the-art performance, reducing MSE and MAE by 6.95% and 6.02% compared
+to the representative methods Time-MoE. Beyond the existing evaluation
+benchmarks, we have developed a proprietary dataset, NEV-sales, derived from
+real-world business scenarios. Our method achieves outstanding results on this
+dataset, underscoring the effectiveness of the MoFE-Time model in practical
+commercial applications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Video-RTS: Rethinking Reinforcement Learning and Test-Time Scaling for Efficient and Enhanced Video Reasoning</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Sparse</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Ziyang Wang, Jaehong Yoon, Shoubin Yu, Md Mohaiminul Islam, Gedas Bertasius, Mohit Bansal</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.06485v1</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Despite advances in reinforcement learning (RL)-based video reasoning with
+large language models (LLMs), data collection and finetuning remain significant
+challenges. These methods often rely on large-scale supervised fine-tuning
+(SFT) with extensive video data and long Chain-of-Thought (CoT) annotations,
+making them costly and hard to scale. To address this, we present Video-RTS, a
+new approach to improve video reasoning capability with drastically improved
+data efficiency by combining data-efficient RL with a video-adaptive test-time
+scaling (TTS) strategy. Based on observations about the data scaling of RL
+samples, we skip the resource-intensive SFT step and employ efficient pure-RL
+training with output-based rewards, requiring no additional annotations or
+extensive fine-tuning. Furthermore, to utilize computational resources more
+efficiently, we introduce a sparse-to-dense video TTS strategy that improves
+inference by iteratively adding frames based on output consistency. We validate
+our approach on multiple video reasoning benchmarks, showing that Video-RTS
+surpasses existing video reasoning models by an average of 2.4% in accuracy
+using only 3.6% training samples. For example, Video-RTS achieves a 4.2%
+improvement on Video-Holmes, a recent and challenging video reasoning
+benchmark, and a 2.6% improvement on MMVU. Notably, our pure RL training and
+adaptive video TTS offer complementary strengths, enabling Video-RTS's strong
+reasoning performance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>2025-07-08</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>2025-07-08</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Exploring Task Performance with Interpretable Models via Sparse Auto-Encoders</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sparse</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Shun Wang, Tyler Loakman, Youbo Lei, Yi Liu, Bohao Yang, Yuting Zhao, Dong Yang, Chenghua Lin</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.06427v1</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Large Language Models (LLMs) are traditionally viewed as black-box
+algorithms, therefore reducing trustworthiness and obscuring potential
+approaches to increasing performance on downstream tasks. In this work, we
+apply an effective LLM decomposition method using a dictionary-learning
+approach with sparse autoencoders. This helps extract monosemantic features
+from polysemantic LLM neurons. Remarkably, our work identifies model-internal
+misunderstanding, allowing the automatic reformulation of the prompts with
+additional annotations to improve the interpretation by LLMs. Moreover, this
+approach demonstrates a significant performance improvement in downstream
+tasks, such as mathematical reasoning and metaphor detection.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>The Trilemma of Truth in Large Language Models</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sparse</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Germans Savcisens, Tina Eliassi-Rad</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2506.23921v2</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>We often attribute human characteristics to large language models (LLMs) and
+claim that they "know" certain things. LLMs have an internal probabilistic
+knowledge that represents information retained during training. How can we
+assess the veracity of this knowledge? We examine two common methods for
+probing the veracity of LLMs and discover several assumptions that are flawed.
+To address these flawed assumptions, we introduce sAwMIL (short for Sparse
+Aware Multiple-Instance Learning), a probing method that utilizes the internal
+activations of LLMs to separate statements into true, false, and neither.
+sAwMIL is based on multiple-instance learning and conformal prediction. We
+evaluate sAwMIL on 5 validity criteria across 16 open-source LLMs, including
+both default and chat-based variants, as well as on 3 new datasets. Among the
+insights we provide are: (1) the veracity signal is often concentrated in the
+third quarter of an LLM's depth; (2) truth and falsehood signals are not always
+symmetric; (3) linear probes perform better on chat models than on default
+models; (4) nonlinear probes may be required to capture veracity signals for
+some LLMs with reinforcement learning from human feedback or knowledge
+distillation; and (5) LLMs capture a third type of signal that is distinct from
+true and false and is neither true nor false. These findings provide a reliable
+method for verifying what LLMs "know" and how certain they are of their
+probabilistic internal knowledge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>SQLBarber: A System Leveraging Large Language Models to Generate Customized and Realistic SQL Workloads</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Prune</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Jiale Lao, Immanuel Trummer</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2507.06192v1</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Database research and development often require a large number of SQL queries
 for benchmarking purposes. However, acquiring real-world SQL queries is
@@ -2705,13 +4328,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2737,15 +4360,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>匹配关键词</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>作者</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
@@ -2754,30 +4382,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pimba: A Processing-in-Memory Acceleration for Post-Transformer Large Language Model Serving</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LLM, Large Language Model</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wonung Kim, Yubin Lee, Yoonsung Kim, Jinwoo Hwang, Seongryong Oh, Jiyong Jung, Aziz Huseynov, Woong Gyu Park, Chang Hyun Park, Divya Mahajan, Jongse Park</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.10178v1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Transformers are the driving force behind today's Large Language Models
+(LLMs), serving as the foundation for their performance and versatility. Yet,
+their compute and memory costs grow with sequence length, posing scalability
+challenges for long-context inferencing. In response, the algorithm community
+is exploring alternative architectures, such as state space models (SSMs),
+linear attention, and recurrent neural networks (RNNs), which we refer to as
+post-transformers. This shift presents a key challenge: building a serving
+system that efficiently supports both transformer and post-transformer LLMs
+within a unified framework. To address this challenge, we analyze the
+performance characteristics of transformer and post-transformer LLMs. Despite
+their algorithmic differences, both are fundamentally limited by memory
+bandwidth under batched inference due to attention in transformers and state
+updates in post-transformers. Further analyses suggest two additional insights:
+(1) state update operations, unlike attention, incur high hardware cost, making
+per-bank PIM acceleration inefficient, and (2) different low-precision
+arithmetic methods offer varying accuracy-area tradeoffs, while we identify
+Microsoft's MX as the Pareto-optimal choice. Building on these insights, we
+design Pimba as an array of State-update Processing Units (SPUs), each shared
+between two banks to enable interleaved access to PIM. Each SPU includes a
+State-update Processing Engine (SPE) that comprises element-wise multipliers
+and adders using MX-based quantized arithmetic, enabling efficient execution of
+state update and attention operations. Our evaluation shows that, compared to
+LLM-optimized GPU and GPU+PIM systems, Pimba achieves up to 3.2x and 2.1x
+higher token generation throughput, respectively.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2025-07-13</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>2025-06-11</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>SLED: A Speculative LLM Decoding Framework for Efficient Edge Serving</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LLM, Large Language Model, Quantization</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Xiangchen Li, Dimitrios Spatharakis, Saeid Ghafouri, Jiakun Fan, Hans Vandierendonck, Deepu John, Bo Ji, Dimitrios Nikolopoulos</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2506.09397v4</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>The growing gap between the increasing complexity of large language models
 (LLMs) and the limited computational budgets of edge devices poses a key
@@ -2802,33 +4495,38 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>2025-07-13</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>DFRot: Achieving Outlier-Free and Massive Activation-Free for Rotated LLMs with Refined Rotation</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LLM, Large Language Model, Quantization</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Jingyang Xiang, Sai Qian Zhang</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2412.00648v3</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Rotating the activation and weight matrices to reduce the influence of
 outliers in large language models (LLMs) has recently attracted significant
@@ -2858,33 +4556,38 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>2025-07-10</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>2025-07-10</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Edge-ASR: Towards Low-Bit Quantization of Automatic Speech Recognition Models</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LLM, Quantization</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Chen Feng, Yicheng Lin, Shaojie Zhuo, Chenzheng Su, Ramchalam Kinattinkara Ramakrishnan, Zhaocong Yuan, Xiaopeng Zhang</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2507.07877v1</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Recent advances in Automatic Speech Recognition (ASR) have demonstrated
 remarkable accuracy and robustness in diverse audio applications, such as live
@@ -2911,33 +4614,141 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Enhancing Vaccine Safety Surveillance: Extracting Vaccine Mentions from Emergency Department Triage Notes Using Fine-Tuned Large Language Models</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Large Language Model, Quantization</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sedigh Khademi, Jim Black, Christopher Palmer, Muhammad Javed, Hazel Clothier, Jim Buttery, Gerardo Luis Dimaguila</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.07599v1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>This study evaluates fine-tuned Llama 3.2 models for extracting
+vaccine-related information from emergency department triage notes to support
+near real-time vaccine safety surveillance. Prompt engineering was used to
+initially create a labeled dataset, which was then confirmed by human
+annotators. The performance of prompt-engineered models, fine-tuned models, and
+a rule-based approach was compared. The fine-tuned Llama 3 billion parameter
+model outperformed other models in its accuracy of extracting vaccine names.
+Model quantization enabled efficient deployment in resource-constrained
+environments. Findings demonstrate the potential of large language models in
+automating data extraction from emergency department notes, supporting
+efficient vaccine safety surveillance and early detection of emerging adverse
+events following immunization issues.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Phishing Detection in the Gen-AI Era: Quantized LLMs vs Classical Models</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LLM, Large Language Model</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Jikesh Thapa, Gurrehmat Chahal, Serban Voinea Gabreanu, Yazan Otoum</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2507.07406v1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Phishing attacks are becoming increasingly sophisticated, underscoring the
+need for detection systems that strike a balance between high accuracy and
+computational efficiency. This paper presents a comparative evaluation of
+traditional Machine Learning (ML), Deep Learning (DL), and quantized
+small-parameter Large Language Models (LLMs) for phishing detection. Through
+experiments on a curated dataset, we show that while LLMs currently
+underperform compared to ML and DL methods in terms of raw accuracy, they
+exhibit strong potential for identifying subtle, context-based phishing cues.
+We also investigate the impact of zero-shot and few-shot prompting strategies,
+revealing that LLM-rephrased emails can significantly degrade the performance
+of both ML and LLM-based detectors. Our benchmarking highlights that models
+like DeepSeek R1 Distill Qwen 14B (Q8_0) achieve competitive accuracy, above
+80%, using only 17GB of VRAM, supporting their viability for cost-efficient
+deployment. We further assess the models' adversarial robustness and
+cost-performance tradeoffs, and demonstrate how lightweight LLMs can provide
+concise, interpretable explanations to support real-time decision-making. These
+findings position optimized LLMs as promising components in phishing defence
+systems and offer a path forward for integrating explainable, efficient AI into
+modern cybersecurity frameworks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>2025-07-09</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>2025-07-09</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>CCQ: Convolutional Code for Extreme Low-bit Quantization in LLMs</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LLM, Large Language Model, Quantization</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Zhaojing Zhou, Xunchao Li, Minghao Li, Handi Zhang, Haoshuang Wang, Wenbin Chang, Yiqun Liu, Qingqing Dang, Dianhai Yu, Yanjun Ma, Haifeng Wang</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2507.07145v1</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>The rapid scaling of Large Language Models (LLMs) elevates inference costs
 and compounds substantial deployment barriers. While quantization to 8 or 4
